--- a/blueprint-jira-better-excel/Wavelength-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Wavelength-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFEE673-692A-4B98-8A98-0C876B490961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BD0C1F-4F88-46A3-BF0D-B464D065C588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="459" r:id="rId19"/>
+    <pivotCache cacheId="617" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -833,9 +833,6 @@
     <t>Venus</t>
   </si>
   <si>
-    <t>Venus Component</t>
-  </si>
-  <si>
     <t>&lt;mt:execute script="field-helper-tool.groovy"/&gt;&lt;mt:execute script="blueprint-helper.groovy"/&gt;&lt;mt:execute script="blueprint-wavelength-dashboard-helper.groovy"/&gt;</t>
   </si>
   <si>
@@ -906,6 +903,9 @@
   </si>
   <si>
     <t>Release, Admin, Visio Import</t>
+  </si>
+  <si>
+    <t>Release Component</t>
   </si>
 </sst>
 </file>
@@ -19808,16 +19808,16 @@
                   <c:v>Admin</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Visio Import</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BoA Audit</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>R&amp;D Bucket</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>Other</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Visio Import</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>BoA Audit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -19832,16 +19832,16 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -42910,7 +42910,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43872.913522569441" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43872.947381018515" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -43279,8 +43279,8 @@
         <s v="Unkown"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Venus Component" numFmtId="0">
-      <sharedItems containsBlank="1" count="12">
+    <cacheField name="Release Component" numFmtId="0">
+      <sharedItems containsBlank="1" count="8">
         <s v="${bpHelper.getWavelengthComponent(issue)}"/>
         <m/>
         <s v="Visio Import"/>
@@ -43289,10 +43289,6 @@
         <s v="DevOps"/>
         <s v="R&amp;D Bucket"/>
         <s v="Other"/>
-        <s v="Angular 8" u="1"/>
-        <s v="${bpHelper.getVenusComponent(issue)}" u="1"/>
-        <s v="CI/CD" u="1"/>
-        <s v="Excel Export" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Customer" numFmtId="0">
@@ -48476,7 +48472,3202 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="459" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="617" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="617" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="17" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="74">
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="66"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="70"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="71"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="65"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="67"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="68"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="69"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="72"/>
+        <item h="1" m="1" x="63"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="67">
+        <item x="0"/>
+        <item m="1" x="56"/>
+        <item m="1" x="16"/>
+        <item m="1" x="30"/>
+        <item m="1" x="57"/>
+        <item m="1" x="20"/>
+        <item m="1" x="31"/>
+        <item m="1" x="59"/>
+        <item m="1" x="21"/>
+        <item m="1" x="9"/>
+        <item m="1" x="33"/>
+        <item m="1" x="61"/>
+        <item m="1" x="25"/>
+        <item m="1" x="37"/>
+        <item m="1" x="62"/>
+        <item m="1" x="11"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item m="1" x="15"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item x="1"/>
+        <item m="1" x="47"/>
+        <item m="1" x="48"/>
+        <item m="1" x="50"/>
+        <item m="1" x="51"/>
+        <item m="1" x="53"/>
+        <item m="1" x="54"/>
+        <item m="1" x="55"/>
+        <item m="1" x="34"/>
+        <item m="1" x="35"/>
+        <item m="1" x="36"/>
+        <item m="1" x="39"/>
+        <item m="1" x="40"/>
+        <item m="1" x="41"/>
+        <item m="1" x="42"/>
+        <item m="1" x="60"/>
+        <item m="1" x="38"/>
+        <item m="1" x="27"/>
+        <item m="1" x="64"/>
+        <item m="1" x="44"/>
+        <item m="1" x="29"/>
+        <item m="1" x="10"/>
+        <item m="1" x="52"/>
+        <item m="1" x="26"/>
+        <item m="1" x="49"/>
+        <item m="1" x="23"/>
+        <item m="1" x="46"/>
+        <item m="1" x="22"/>
+        <item m="1" x="45"/>
+        <item m="1" x="58"/>
+        <item m="1" x="32"/>
+        <item m="1" x="24"/>
+        <item m="1" x="63"/>
+        <item m="1" x="43"/>
+        <item m="1" x="28"/>
+        <item m="1" x="65"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="59" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="74">
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="66"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="70"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="71"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="65"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="67"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="68"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="69"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="72"/>
+        <item h="1" m="1" x="63"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="617" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="11">
+        <item h="1" x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item h="1" x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="617" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48604,8 +51795,266 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="459" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="617" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="17" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="617" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -48948,9 +52397,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="459" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="617" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48979,7 +52428,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49017,146 +52466,9 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="459" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
@@ -49170,454 +52482,70 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="10"/>
+    <field x="-2"/>
   </rowFields>
   <rowItems count="5">
     <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
       <x v="3"/>
     </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="459" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
+    <i i="4">
+      <x v="4"/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="459" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="459" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
+  <pageFields count="3">
     <pageField fld="32" item="9" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
   </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -49626,71 +52554,110 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="10" format="50">
+    <chartFormat chart="0" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="10" format="51">
+    <chartFormat chart="0" format="11">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="34" count="1" selected="0">
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="10" format="52">
+    <chartFormat chart="0" format="15">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="10" format="53">
+    <chartFormat chart="4" format="22" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="34" count="1" selected="0">
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="10" format="54">
+    <chartFormat chart="4" format="26">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="10" format="55">
+    <chartFormat chart="4" format="27">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -49708,1776 +52675,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="459" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="74">
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="66"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="70"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="71"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="65"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="67"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="68"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="69"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="72"/>
-        <item h="1" m="1" x="63"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="459" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="67">
-        <item x="0"/>
-        <item m="1" x="56"/>
-        <item m="1" x="16"/>
-        <item m="1" x="30"/>
-        <item m="1" x="57"/>
-        <item m="1" x="20"/>
-        <item m="1" x="31"/>
-        <item m="1" x="59"/>
-        <item m="1" x="21"/>
-        <item m="1" x="9"/>
-        <item m="1" x="33"/>
-        <item m="1" x="61"/>
-        <item m="1" x="25"/>
-        <item m="1" x="37"/>
-        <item m="1" x="62"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item x="1"/>
-        <item m="1" x="47"/>
-        <item m="1" x="48"/>
-        <item m="1" x="50"/>
-        <item m="1" x="51"/>
-        <item m="1" x="53"/>
-        <item m="1" x="54"/>
-        <item m="1" x="55"/>
-        <item m="1" x="34"/>
-        <item m="1" x="35"/>
-        <item m="1" x="36"/>
-        <item m="1" x="39"/>
-        <item m="1" x="40"/>
-        <item m="1" x="41"/>
-        <item m="1" x="42"/>
-        <item m="1" x="60"/>
-        <item m="1" x="38"/>
-        <item m="1" x="27"/>
-        <item m="1" x="64"/>
-        <item m="1" x="44"/>
-        <item m="1" x="29"/>
-        <item m="1" x="10"/>
-        <item m="1" x="52"/>
-        <item m="1" x="26"/>
-        <item m="1" x="49"/>
-        <item m="1" x="23"/>
-        <item m="1" x="46"/>
-        <item m="1" x="22"/>
-        <item m="1" x="45"/>
-        <item m="1" x="58"/>
-        <item m="1" x="32"/>
-        <item m="1" x="24"/>
-        <item m="1" x="63"/>
-        <item m="1" x="43"/>
-        <item m="1" x="28"/>
-        <item m="1" x="65"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="59" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="459" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="459" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="74">
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="66"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="70"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="71"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="65"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="67"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="68"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="69"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="72"/>
-        <item h="1" m="1" x="63"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="459" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="459" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item h="1" m="1" x="9"/>
-        <item x="3"/>
-        <item h="1" m="1" x="8"/>
-        <item m="1" x="11"/>
-        <item x="6"/>
-        <item m="1" x="10"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="459" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="17" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="459" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="617" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51919,1213 +53118,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="18" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="459" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="11">
-        <item h="1" x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item h="1" x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="459" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="459" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="17" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="459" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -55183,7 +55175,7 @@
         <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -55349,7 +55341,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C6" s="20">
         <v>100</v>
@@ -55366,66 +55358,66 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C7" s="20">
         <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C8" s="20">
         <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C9" s="20">
         <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C10" s="20">
         <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C11" s="20">
         <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C12" s="20"/>
       <c r="K12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -55436,7 +55428,7 @@
         <v>370</v>
       </c>
       <c r="K13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M13" s="20"/>
     </row>
@@ -55510,7 +55502,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -55652,7 +55644,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
@@ -55681,7 +55673,7 @@
         <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -55778,7 +55770,7 @@
         <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
@@ -55815,7 +55807,7 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C30" s="20">
         <v>1</v>
@@ -55823,19 +55815,19 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C31" s="20"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C32" s="20"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C33" s="20">
         <v>1</v>
@@ -55843,19 +55835,19 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C34" s="20"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C35" s="20"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C36" s="20"/>
     </row>
@@ -55921,7 +55913,7 @@
     <col min="33" max="33" width="22.109375" style="5" customWidth="1"/>
     <col min="34" max="34" width="13.5546875" style="5" customWidth="1"/>
     <col min="35" max="35" width="12.109375" style="5" customWidth="1"/>
-    <col min="36" max="36" width="17.77734375" style="5" customWidth="1"/>
+    <col min="36" max="36" width="20.21875" style="5" customWidth="1"/>
     <col min="37" max="38" width="16.77734375" style="5" customWidth="1"/>
     <col min="39" max="39" width="18.88671875" style="5" customWidth="1"/>
     <col min="40" max="40" width="17.77734375" style="5" customWidth="1"/>
@@ -56042,7 +56034,7 @@
         <v>145</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>44</v>
@@ -56078,7 +56070,7 @@
         <v>217</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -56176,7 +56168,7 @@
         <v>142</v>
       </c>
       <c r="AF2" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG2" s="15" t="s">
         <v>136</v>
@@ -56188,7 +56180,7 @@
         <v>146</v>
       </c>
       <c r="AJ2" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AK2" s="14" t="s">
         <v>49</v>
@@ -56250,7 +56242,7 @@
       </c>
       <c r="W4" s="4"/>
       <c r="AE4" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG4" s="5" t="s">
         <v>257</v>
@@ -56259,7 +56251,7 @@
         <v>147</v>
       </c>
       <c r="AJ4" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AL4" s="4" t="s">
         <v>223</v>
@@ -56298,7 +56290,7 @@
       </c>
       <c r="W5" s="4"/>
       <c r="AE5" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AI5" s="5" t="s">
         <v>175</v>
@@ -56347,13 +56339,13 @@
       </c>
       <c r="W6" s="4"/>
       <c r="AE6" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AI6" s="5" t="s">
         <v>148</v>
       </c>
       <c r="AJ6" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL6" s="4" t="s">
         <v>223</v>
@@ -56393,7 +56385,7 @@
       </c>
       <c r="W7" s="4"/>
       <c r="AE7" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AI7" s="5" t="s">
         <v>149</v>
@@ -56433,7 +56425,7 @@
       </c>
       <c r="W8" s="4"/>
       <c r="AE8" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AI8" s="5" t="s">
         <v>151</v>
@@ -56476,7 +56468,7 @@
       </c>
       <c r="W9" s="4"/>
       <c r="AE9" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AI9" s="5" t="s">
         <v>150</v>
@@ -56519,7 +56511,7 @@
       </c>
       <c r="W10" s="4"/>
       <c r="AE10" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AI10" s="5" t="s">
         <v>152</v>
@@ -56559,7 +56551,7 @@
       </c>
       <c r="W11" s="4"/>
       <c r="AE11" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AL11" s="4" t="s">
         <v>223</v>
@@ -56593,10 +56585,10 @@
       </c>
       <c r="W12" s="4"/>
       <c r="AE12" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF12" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL12" s="4" t="s">
         <v>58</v>
@@ -56628,10 +56620,10 @@
       </c>
       <c r="W13" s="4"/>
       <c r="AE13" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
@@ -56664,10 +56656,10 @@
       </c>
       <c r="W14" s="4"/>
       <c r="AE14" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
@@ -56698,10 +56690,10 @@
       </c>
       <c r="W15" s="4"/>
       <c r="AE15" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF15" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
@@ -56727,10 +56719,10 @@
         <v>10</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AS16" s="5" t="s">
         <v>240</v>
@@ -56753,10 +56745,10 @@
         <v>10</v>
       </c>
       <c r="AE17" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF17" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AS17" s="5" t="s">
         <v>241</v>
@@ -56779,10 +56771,10 @@
         <v>10</v>
       </c>
       <c r="AE18" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF18" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AS18" s="5" t="s">
         <v>242</v>
@@ -56805,10 +56797,10 @@
         <v>10</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF19" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AS19" s="5" t="s">
         <v>243</v>
@@ -56831,10 +56823,10 @@
         <v>10</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF20" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AS20" s="5" t="s">
         <v>244</v>
@@ -56857,10 +56849,10 @@
         <v>10</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AS21" s="5" t="s">
         <v>245</v>
@@ -56883,10 +56875,10 @@
         <v>10</v>
       </c>
       <c r="AE22" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AS22" s="5" t="s">
         <v>246</v>
@@ -56903,10 +56895,10 @@
         <v>105</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF23" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AT23" s="5" t="s">
         <v>218</v>
@@ -56920,10 +56912,10 @@
         <v>106</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF24" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AT24" s="5" t="s">
         <v>218</v>
@@ -56937,10 +56929,10 @@
         <v>107</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF25" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AT25" s="5" t="s">
         <v>218</v>
@@ -57172,7 +57164,7 @@
         <v>75</v>
       </c>
       <c r="AE37" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AT37" s="5" t="s">
         <v>218</v>
@@ -57211,10 +57203,10 @@
         <v>78</v>
       </c>
       <c r="AF40" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG40" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH40" s="5" t="s">
         <v>155</v>
@@ -57237,10 +57229,10 @@
         <v>79</v>
       </c>
       <c r="AF41" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG41" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH41" s="5" t="s">
         <v>156</v>
@@ -57263,10 +57255,10 @@
         <v>80</v>
       </c>
       <c r="AF42" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG42" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH42" s="5" t="s">
         <v>157</v>
@@ -57289,10 +57281,10 @@
         <v>81</v>
       </c>
       <c r="AF43" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG43" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH43" s="5" t="s">
         <v>158</v>
@@ -57315,10 +57307,10 @@
         <v>82</v>
       </c>
       <c r="AF44" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG44" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH44" s="5" t="s">
         <v>159</v>
@@ -57341,10 +57333,10 @@
         <v>83</v>
       </c>
       <c r="AF45" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG45" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH45" s="5" t="s">
         <v>158</v>
@@ -57367,10 +57359,10 @@
         <v>84</v>
       </c>
       <c r="AF46" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG46" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AT46" s="5" t="s">
         <v>218</v>
@@ -57406,10 +57398,10 @@
         <v>81</v>
       </c>
       <c r="AF49" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG49" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AH49" s="5" t="s">
         <v>155</v>
@@ -57441,7 +57433,7 @@
         <v>180</v>
       </c>
       <c r="AG50" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AJ50" s="5" t="s">
         <v>255</v>
@@ -57470,7 +57462,7 @@
         <v>62</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P51" s="5">
         <v>50</v>
@@ -57482,7 +57474,7 @@
         <v>180</v>
       </c>
       <c r="AG51" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AJ51" s="10" t="s">
         <v>255</v>
@@ -57516,7 +57508,7 @@
         <v>94</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N52" s="5">
         <v>10</v>
@@ -57531,13 +57523,13 @@
         <v>180</v>
       </c>
       <c r="AG52" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI52" s="5" t="s">
         <v>147</v>
       </c>
       <c r="AJ52" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL52" s="4" t="s">
         <v>223</v>
@@ -57566,7 +57558,7 @@
         <v>96</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N53" s="5">
         <v>10</v>
@@ -57578,7 +57570,7 @@
         <v>150</v>
       </c>
       <c r="AG53" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI53" s="5" t="s">
         <v>175</v>
@@ -57601,7 +57593,7 @@
         <v>97</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N54" s="5">
         <v>10</v>
@@ -57613,7 +57605,7 @@
         <v>150</v>
       </c>
       <c r="AG54" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI54" s="5" t="s">
         <v>148</v>
@@ -57639,7 +57631,7 @@
         <v>10</v>
       </c>
       <c r="AG55" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI55" s="5" t="s">
         <v>149</v>
@@ -57665,7 +57657,7 @@
         <v>10</v>
       </c>
       <c r="AG56" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI56" s="5" t="s">
         <v>151</v>
@@ -57693,7 +57685,7 @@
         <v>20</v>
       </c>
       <c r="AG57" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI57" s="5" t="s">
         <v>147</v>
@@ -57721,7 +57713,7 @@
         <v>20</v>
       </c>
       <c r="AG58" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI58" s="5" t="s">
         <v>175</v>
@@ -57749,7 +57741,7 @@
         <v>20</v>
       </c>
       <c r="AG59" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI59" s="5" t="s">
         <v>148</v>
@@ -57777,7 +57769,7 @@
         <v>20</v>
       </c>
       <c r="AG60" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI60" s="5" t="s">
         <v>149</v>
@@ -57805,7 +57797,7 @@
         <v>20</v>
       </c>
       <c r="AG61" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI61" s="5" t="s">
         <v>151</v>
@@ -57833,7 +57825,7 @@
         <v>30</v>
       </c>
       <c r="AG62" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI62" s="5" t="s">
         <v>147</v>
@@ -57861,7 +57853,7 @@
         <v>30</v>
       </c>
       <c r="AG63" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI63" s="5" t="s">
         <v>175</v>
@@ -57889,7 +57881,7 @@
         <v>30</v>
       </c>
       <c r="AG64" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI64" s="5" t="s">
         <v>148</v>
@@ -57917,7 +57909,7 @@
         <v>30</v>
       </c>
       <c r="AG65" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI65" s="5" t="s">
         <v>149</v>
@@ -57945,7 +57937,7 @@
         <v>30</v>
       </c>
       <c r="AG66" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI66" s="5" t="s">
         <v>151</v>
@@ -57973,7 +57965,7 @@
         <v>40</v>
       </c>
       <c r="AG67" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI67" s="5" t="s">
         <v>147</v>
@@ -58001,7 +57993,7 @@
         <v>40</v>
       </c>
       <c r="AG68" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI68" s="5" t="s">
         <v>175</v>
@@ -58029,7 +58021,7 @@
         <v>40</v>
       </c>
       <c r="AG69" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI69" s="5" t="s">
         <v>148</v>
@@ -58057,7 +58049,7 @@
         <v>40</v>
       </c>
       <c r="AG70" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI70" s="5" t="s">
         <v>149</v>
@@ -58085,7 +58077,7 @@
         <v>40</v>
       </c>
       <c r="AG71" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI71" s="5" t="s">
         <v>151</v>
@@ -58116,10 +58108,10 @@
         <v>100</v>
       </c>
       <c r="AG73" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AJ73" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AT73" s="5" t="s">
         <v>218</v>
@@ -58136,7 +58128,7 @@
         <v>50</v>
       </c>
       <c r="AG74" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AJ74" s="10" t="s">
         <v>255</v>
@@ -58158,7 +58150,7 @@
         <v>50</v>
       </c>
       <c r="AG75" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AJ75" s="10" t="s">
         <v>185</v>
@@ -58178,7 +58170,7 @@
         <v>50</v>
       </c>
       <c r="AG76" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AJ76" s="10" t="s">
         <v>186</v>
@@ -58198,10 +58190,10 @@
         <v>50</v>
       </c>
       <c r="AG77" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AJ77" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AL77" s="4"/>
       <c r="AT77" s="5" t="s">
@@ -58225,10 +58217,10 @@
         <v>50</v>
       </c>
       <c r="AF78" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG78" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AJ78" s="5" t="s">
         <v>255</v>
@@ -58254,13 +58246,13 @@
         <v>50</v>
       </c>
       <c r="AF79" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG79" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AJ79" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AL79" s="4" t="s">
         <v>55</v>
@@ -58286,10 +58278,10 @@
         <v>50</v>
       </c>
       <c r="AF80" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG80" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AJ80" s="10" t="s">
         <v>255</v>
@@ -58315,7 +58307,7 @@
         <v>30</v>
       </c>
       <c r="AF81" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AL81" s="4" t="s">
         <v>52</v>
@@ -58338,7 +58330,7 @@
         <v>30</v>
       </c>
       <c r="AF82" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL82" s="4" t="s">
         <v>223</v>
@@ -58361,7 +58353,7 @@
         <v>30</v>
       </c>
       <c r="AF83" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL83" s="4" t="s">
         <v>53</v>
@@ -58384,7 +58376,7 @@
         <v>30</v>
       </c>
       <c r="AF84" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL84" s="4" t="s">
         <v>55</v>
@@ -58407,7 +58399,7 @@
         <v>30</v>
       </c>
       <c r="AF85" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL85" s="4" t="s">
         <v>56</v>
@@ -58430,7 +58422,7 @@
         <v>30</v>
       </c>
       <c r="AF86" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL86" s="4" t="s">
         <v>52</v>
@@ -58453,7 +58445,7 @@
         <v>30</v>
       </c>
       <c r="AF87" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AL87" s="4" t="s">
         <v>223</v>
@@ -58476,7 +58468,7 @@
         <v>30</v>
       </c>
       <c r="AF88" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL88" s="4" t="s">
         <v>53</v>
@@ -58499,7 +58491,7 @@
         <v>30</v>
       </c>
       <c r="AF89" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AL89" s="4" t="s">
         <v>55</v>
@@ -58522,7 +58514,7 @@
         <v>30</v>
       </c>
       <c r="AF90" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AL90" s="4" t="s">
         <v>56</v>
@@ -58545,7 +58537,7 @@
         <v>30</v>
       </c>
       <c r="AF91" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL91" s="4" t="s">
         <v>52</v>
@@ -58568,7 +58560,7 @@
         <v>30</v>
       </c>
       <c r="AF92" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AT92" s="5" t="s">
         <v>218</v>
@@ -58947,10 +58939,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
@@ -58981,7 +58973,7 @@
         <v>154</v>
       </c>
       <c r="K1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L1" t="s">
         <v>256</v>
@@ -58993,7 +58985,7 @@
         <v>255</v>
       </c>
       <c r="O1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P1" t="s">
         <v>256</v>
@@ -59007,7 +58999,7 @@
       </c>
       <c r="T1" s="80"/>
       <c r="U1" s="80" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V1" s="80"/>
       <c r="W1" s="80" t="s">
@@ -59018,7 +59010,7 @@
         <v>135</v>
       </c>
       <c r="AC1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
@@ -59184,7 +59176,7 @@
         <v>43970</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H4" s="24">
         <v>43873</v>
@@ -59268,7 +59260,7 @@
         <v>181</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H5" s="24">
         <f>I4+1</f>
@@ -59344,7 +59336,7 @@
         <v>43872</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H6" s="24">
         <f>I5+1</f>
@@ -59410,7 +59402,7 @@
       <c r="D7" s="21"/>
       <c r="E7" s="20"/>
       <c r="G7" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H7" s="24">
         <f t="shared" ref="H7:H9" si="9">I6+1</f>
@@ -59471,7 +59463,7 @@
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="G8" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H8" s="24">
         <f t="shared" si="9"/>
@@ -59519,7 +59511,7 @@
       <c r="X8" s="42"/>
       <c r="Z8" s="32"/>
       <c r="AB8" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AC8" s="20">
         <v>50</v>
@@ -59536,7 +59528,7 @@
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="G9" s="67" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H9" s="68">
         <f t="shared" si="9"/>
@@ -59584,7 +59576,7 @@
       <c r="X9" s="42"/>
       <c r="Z9" s="32"/>
       <c r="AB9" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AC9" s="20">
         <v>50</v>
@@ -59602,7 +59594,7 @@
         <v>-0.5</v>
       </c>
       <c r="G10" s="72" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H10" s="73">
         <f t="shared" ref="H10" si="11">I9+1</f>
@@ -59710,7 +59702,7 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="24"/>
@@ -59807,7 +59799,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="24"/>
@@ -59905,7 +59897,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B21" s="39"/>
     </row>
@@ -59932,19 +59924,19 @@
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>135</v>
       </c>
       <c r="K24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P24" t="s">
         <v>221</v>
@@ -59958,7 +59950,7 @@
         <v>135</v>
       </c>
       <c r="B25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>9</v>
@@ -60003,13 +59995,13 @@
         <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J26" s="16" t="s">
         <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P26" t="s">
         <v>255</v>
@@ -60044,7 +60036,7 @@
         <v>218</v>
       </c>
       <c r="P27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q27">
         <v>200</v>
@@ -60056,7 +60048,7 @@
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q28" s="16">
         <v>60</v>
@@ -60221,7 +60213,7 @@
         <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -60235,19 +60227,19 @@
         <v>135</v>
       </c>
       <c r="E37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>135</v>
       </c>
       <c r="H37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J37" s="16" t="s">
         <v>135</v>
       </c>
       <c r="K37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -60287,13 +60279,13 @@
         <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J39" s="16" t="s">
         <v>20</v>
       </c>
       <c r="K39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -60389,7 +60381,7 @@
         <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>140</v>
@@ -60450,10 +60442,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="B56" s="20">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>245</v>
@@ -60464,10 +60456,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="B57" s="20">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>241</v>
@@ -60478,10 +60470,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="17" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="B58" s="20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>246</v>
@@ -60492,10 +60484,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
-        <v>262</v>
+        <v>186</v>
       </c>
       <c r="B59" s="20">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>184</v>
@@ -60645,7 +60637,7 @@
       <c r="R1" s="82"/>
       <c r="S1" s="82"/>
       <c r="T1" s="82" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U1" s="82"/>
       <c r="V1" s="82"/>
@@ -60655,7 +60647,7 @@
       <c r="Z1" s="82"/>
       <c r="AA1" s="82"/>
       <c r="AB1" s="82" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AC1" s="82"/>
       <c r="AD1" s="82"/>
@@ -60907,7 +60899,7 @@
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" s="60">
         <v>43873</v>
@@ -61046,7 +61038,7 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" s="60">
         <v>43887</v>
@@ -61113,7 +61105,7 @@
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6" s="60">
         <v>43901</v>
@@ -61180,7 +61172,7 @@
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B7" s="60">
         <v>43915</v>
@@ -61248,12 +61240,12 @@
         <v>135</v>
       </c>
       <c r="AM7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B8" s="60">
         <v>43929</v>
@@ -61326,7 +61318,7 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B9" s="60">
         <v>43943</v>
@@ -61393,7 +61385,7 @@
     </row>
     <row r="10" spans="1:42" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B10" s="60">
         <v>43957</v>
@@ -61681,7 +61673,7 @@
       <c r="AH15" s="33"/>
       <c r="AI15" s="33"/>
       <c r="AL15" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AM15" s="20">
         <v>50</v>
@@ -61730,7 +61722,7 @@
       <c r="AH16" s="33"/>
       <c r="AI16" s="33"/>
       <c r="AL16" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AM16" s="20">
         <v>50</v>
@@ -61930,7 +61922,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C16" s="20">
         <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
@@ -61943,42 +61935,42 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>

--- a/blueprint-jira-better-excel/Wavelength-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Wavelength-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BD0C1F-4F88-46A3-BF0D-B464D065C588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59A0DE4-778A-43FD-A106-1739B2554CD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="617" r:id="rId19"/>
+    <pivotCache cacheId="691" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -1843,10 +1843,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>1.4705882352941176E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.98529411764705888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2356,7 +2356,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-0.5</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.5</c:v>
@@ -3813,7 +3813,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>150</c:v>
@@ -4158,7 +4158,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>191.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -4231,7 +4231,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>124.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4306,7 +4306,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>120.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>180</c:v>
@@ -4379,7 +4379,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-50</c:v>
+                  <c:v>55.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-50</c:v>
@@ -5002,10 +5002,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>1.4705882352941176E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.98529411764705888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5515,7 +5515,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-2</c:v>
@@ -6981,7 +6981,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>150</c:v>
@@ -7536,7 +7536,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
@@ -7609,7 +7609,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -7684,7 +7684,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>180</c:v>
@@ -7757,7 +7757,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-100</c:v>
@@ -8339,10 +8339,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>1.4705882352941176E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.98529411764705888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8852,7 +8852,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-2</c:v>
@@ -9299,7 +9299,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>150</c:v>
@@ -9644,7 +9644,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
@@ -9717,7 +9717,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -9792,7 +9792,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>180</c:v>
@@ -9865,7 +9865,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-100</c:v>
@@ -15141,7 +15141,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.25</c:v>
@@ -20205,7 +20205,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>450</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>450</c:v>
@@ -20550,7 +20550,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>600</c:v>
+                  <c:v>520.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>600</c:v>
@@ -20623,7 +20623,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>443.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -20698,7 +20698,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>540</c:v>
+                  <c:v>378.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>540</c:v>
@@ -20771,7 +20771,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>55.799999999999955</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>150</c:v>
@@ -22259,10 +22259,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0</c:v>
+                  <c:v>1.4705882352941176E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.98529411764705888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41069,7 +41069,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>1%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41710,7 +41710,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>1%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42386,7 +42386,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>1%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42893,7 +42893,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>1%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42910,7 +42910,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43872.947381018515" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43873.382992476851" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -48472,3589 +48472,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="617" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="617" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="17" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="74">
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="66"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="70"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="71"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="65"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="67"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="68"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="69"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="72"/>
-        <item h="1" m="1" x="63"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="67">
-        <item x="0"/>
-        <item m="1" x="56"/>
-        <item m="1" x="16"/>
-        <item m="1" x="30"/>
-        <item m="1" x="57"/>
-        <item m="1" x="20"/>
-        <item m="1" x="31"/>
-        <item m="1" x="59"/>
-        <item m="1" x="21"/>
-        <item m="1" x="9"/>
-        <item m="1" x="33"/>
-        <item m="1" x="61"/>
-        <item m="1" x="25"/>
-        <item m="1" x="37"/>
-        <item m="1" x="62"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item x="1"/>
-        <item m="1" x="47"/>
-        <item m="1" x="48"/>
-        <item m="1" x="50"/>
-        <item m="1" x="51"/>
-        <item m="1" x="53"/>
-        <item m="1" x="54"/>
-        <item m="1" x="55"/>
-        <item m="1" x="34"/>
-        <item m="1" x="35"/>
-        <item m="1" x="36"/>
-        <item m="1" x="39"/>
-        <item m="1" x="40"/>
-        <item m="1" x="41"/>
-        <item m="1" x="42"/>
-        <item m="1" x="60"/>
-        <item m="1" x="38"/>
-        <item m="1" x="27"/>
-        <item m="1" x="64"/>
-        <item m="1" x="44"/>
-        <item m="1" x="29"/>
-        <item m="1" x="10"/>
-        <item m="1" x="52"/>
-        <item m="1" x="26"/>
-        <item m="1" x="49"/>
-        <item m="1" x="23"/>
-        <item m="1" x="46"/>
-        <item m="1" x="22"/>
-        <item m="1" x="45"/>
-        <item m="1" x="58"/>
-        <item m="1" x="32"/>
-        <item m="1" x="24"/>
-        <item m="1" x="63"/>
-        <item m="1" x="43"/>
-        <item m="1" x="28"/>
-        <item m="1" x="65"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="59" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="74">
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="66"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="70"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="71"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="65"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="67"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="68"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="69"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="72"/>
-        <item h="1" m="1" x="63"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="617" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="11">
-        <item h="1" x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item h="1" x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="617" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="617" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="17" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="617" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="617" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -52397,8 +48815,2627 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="617" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="691" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="691" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="74">
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="66"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="70"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="71"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="65"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="67"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="68"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="69"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="72"/>
+        <item h="1" m="1" x="63"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="67">
+        <item x="0"/>
+        <item m="1" x="56"/>
+        <item m="1" x="16"/>
+        <item m="1" x="30"/>
+        <item m="1" x="57"/>
+        <item m="1" x="20"/>
+        <item m="1" x="31"/>
+        <item m="1" x="59"/>
+        <item m="1" x="21"/>
+        <item m="1" x="9"/>
+        <item m="1" x="33"/>
+        <item m="1" x="61"/>
+        <item m="1" x="25"/>
+        <item m="1" x="37"/>
+        <item m="1" x="62"/>
+        <item m="1" x="11"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item m="1" x="15"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item x="1"/>
+        <item m="1" x="47"/>
+        <item m="1" x="48"/>
+        <item m="1" x="50"/>
+        <item m="1" x="51"/>
+        <item m="1" x="53"/>
+        <item m="1" x="54"/>
+        <item m="1" x="55"/>
+        <item m="1" x="34"/>
+        <item m="1" x="35"/>
+        <item m="1" x="36"/>
+        <item m="1" x="39"/>
+        <item m="1" x="40"/>
+        <item m="1" x="41"/>
+        <item m="1" x="42"/>
+        <item m="1" x="60"/>
+        <item m="1" x="38"/>
+        <item m="1" x="27"/>
+        <item m="1" x="64"/>
+        <item m="1" x="44"/>
+        <item m="1" x="29"/>
+        <item m="1" x="10"/>
+        <item m="1" x="52"/>
+        <item m="1" x="26"/>
+        <item m="1" x="49"/>
+        <item m="1" x="23"/>
+        <item m="1" x="46"/>
+        <item m="1" x="22"/>
+        <item m="1" x="45"/>
+        <item m="1" x="58"/>
+        <item m="1" x="32"/>
+        <item m="1" x="24"/>
+        <item m="1" x="63"/>
+        <item m="1" x="43"/>
+        <item m="1" x="28"/>
+        <item m="1" x="65"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="59" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="74">
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="66"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="70"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="71"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="65"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="67"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="68"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="69"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="72"/>
+        <item h="1" m="1" x="63"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="11">
+        <item h="1" x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item h="1" x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="691" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52675,8 +51712,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="617" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="691" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53127,6 +52164,969 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="691" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="691" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="17" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="691" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="17" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="691" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -55163,8 +55163,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
@@ -55295,8 +55295,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.77734375" bestFit="1" customWidth="1"/>
@@ -55478,8 +55478,8 @@
   <cols>
     <col min="1" max="1" width="11.5546875" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -55643,8 +55643,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
@@ -58939,17 +58939,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5546875" customWidth="1"/>
     <col min="13" max="13" width="14.109375" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" customWidth="1"/>
@@ -58960,9 +58960,9 @@
     <col min="21" max="21" width="14.109375" customWidth="1"/>
     <col min="22" max="24" width="15.77734375" customWidth="1"/>
     <col min="26" max="26" width="22.77734375" customWidth="1"/>
-    <col min="28" max="28" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
@@ -59019,7 +59019,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0</v>
+        <v>1.4705882352941176E-2</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -59097,7 +59097,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>1</v>
+        <v>0.98529411764705888</v>
       </c>
       <c r="D3" s="26">
         <v>43873</v>
@@ -59113,52 +59113,44 @@
         <v>0</v>
       </c>
       <c r="M3" s="78">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="N3" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Admin")</f>
-        <v>-0.5</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O3" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Visio Import/Export")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Visio Import/Export")</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P3" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Logging and Audit")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Logging and Audit")</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="40">
         <f>$Q$25*(100%-K3)</f>
         <v>470</v>
       </c>
       <c r="R3" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="S3" s="40">
         <f>$Q$26*(100%-K3)</f>
         <v>200</v>
       </c>
       <c r="T3" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")</f>
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="U3" s="40">
         <f>$Q$27*(100%-L3)</f>
         <v>200</v>
       </c>
       <c r="V3" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Visio Import/Export")</f>
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="W3" s="40">
         <f>$Q$28*(100%-K3)</f>
         <v>60</v>
       </c>
       <c r="X3" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Logging and Audit")</f>
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="Z3" s="32">
         <v>43878</v>
@@ -59333,7 +59325,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>265</v>
@@ -59907,7 +59899,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0</v>
+        <v>1.4705882352941176E-2</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
@@ -59916,7 +59908,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>1</v>
+        <v>0.98529411764705888</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
@@ -60601,11 +60593,11 @@
     <col min="34" max="34" width="12.77734375" customWidth="1"/>
     <col min="35" max="35" width="12.33203125" customWidth="1"/>
     <col min="36" max="36" width="9.109375" style="47"/>
-    <col min="38" max="38" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="29" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="26.109375" bestFit="1" customWidth="1"/>
@@ -60769,132 +60761,116 @@
       <c r="B3" s="56"/>
       <c r="C3" s="56"/>
       <c r="D3" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>600</v>
+        <v>520.79999999999995</v>
       </c>
       <c r="E3" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>470</v>
       </c>
       <c r="F3" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>443.8</v>
       </c>
       <c r="G3" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>378.3</v>
       </c>
       <c r="H3" s="40">
         <f t="shared" ref="H3:H4" si="0">D3-I3</f>
-        <v>150</v>
+        <v>55.799999999999955</v>
       </c>
       <c r="I3" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="J3" s="33">
         <f t="shared" ref="J3:J4" si="1" xml:space="preserve"> G3/D3</f>
-        <v>0.9</v>
+        <v>0.72638248847926279</v>
       </c>
       <c r="K3" s="33">
         <f t="shared" ref="K3:K4" si="2" xml:space="preserve"> H3/D3</f>
-        <v>0.25</v>
+        <v>0.10714285714285707</v>
       </c>
       <c r="L3" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>100</v>
+        <v>191.8</v>
       </c>
       <c r="M3" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>200</v>
       </c>
       <c r="N3" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>0</v>
+        <v>124.8</v>
       </c>
       <c r="O3" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>180</v>
+        <v>120.8</v>
       </c>
       <c r="P3" s="40">
         <f t="shared" ref="P3:P4" si="3">L3-Q3</f>
-        <v>-50</v>
+        <v>55.800000000000011</v>
       </c>
       <c r="Q3" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="R3" s="33">
         <f t="shared" ref="R3:R4" si="4" xml:space="preserve"> O3/L3</f>
-        <v>1.8</v>
+        <v>0.62982273201251293</v>
       </c>
       <c r="S3" s="33">
         <f t="shared" ref="S3:S4" si="5" xml:space="preserve"> P3/L3</f>
-        <v>-0.5</v>
+        <v>0.29092805005213768</v>
       </c>
       <c r="T3" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Visio Import/Export")</f>
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="U3" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>200</v>
       </c>
       <c r="V3" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Visio Import/Export")</f>
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="W3" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Visio Import/Export")</f>
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="X3" s="40">
         <f t="shared" ref="X3:X4" si="6">T3-Y3</f>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Visio Import/Export")</f>
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="Z3" s="33">
         <f t="shared" ref="Z3:Z4" si="7" xml:space="preserve"> W3/T3</f>
-        <v>3.6</v>
+        <v>0.65730337078651691</v>
       </c>
       <c r="AA3" s="33">
         <f t="shared" ref="AA3:AA4" si="8">X3/T3</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Logging and Audit")</f>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="AC3" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>60</v>
       </c>
       <c r="AD3" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Logging and Audit")</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AE3" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Logging and Audit")</f>
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="AF3" s="40">
         <f t="shared" ref="AF3:AF4" si="9">AB3-AG3</f>
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Logging and Audit")</f>
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="AH3" s="33">
         <f t="shared" ref="AH3:AH4" si="10" xml:space="preserve"> AE3/AB3</f>
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="AI3" s="33">
         <f t="shared" ref="AI3:AI4" si="11">AF3/AB3</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
@@ -61822,13 +61798,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" customWidth="1"/>
     <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>

--- a/blueprint-jira-better-excel/Wavelength-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Wavelength-Dashboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59A0DE4-778A-43FD-A106-1739B2554CD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C4EB25-CBF2-4792-8C71-895062F18A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,13 +34,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Issues!$AF$40:$AH$46</definedName>
-    <definedName name="issues">OFFSET(Issues!$A$1,0,0,COUNTA(Issues!$A$1:$A$10003),COUNTA(Issues!$A$1:$AAR$1) - 1)</definedName>
+    <definedName name="issues">OFFSET(Issues!$A$1,0,0,COUNTA(Issues!$A$1:$A$10008),COUNTA(Issues!$A$1:$AAR$1) - 1)</definedName>
     <definedName name="Table10" localSheetId="3">Table15[Stabilization and Holidays]</definedName>
     <definedName name="Table10">Table15[Stabilization and Holidays]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="691" r:id="rId19"/>
+    <pivotCache cacheId="15" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="283">
   <si>
     <t>Status</t>
   </si>
@@ -920,7 +920,7 @@
     <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="169" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,8 +1015,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1062,8 +1075,14 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1314,6 +1333,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1323,7 +1360,7 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1460,6 +1497,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="2"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="5" applyAlignment="1">
@@ -1474,7 +1517,59 @@
     <cellStyle name="Output" xfId="2" builtinId="21"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1843,10 +1938,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>1.4705882352941176E-2</c:v>
+                  <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98529411764705888</c:v>
+                  <c:v>0.88235294117647056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5002,10 +5097,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>1.4705882352941176E-2</c:v>
+                  <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98529411764705888</c:v>
+                  <c:v>0.88235294117647056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8339,10 +8434,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>1.4705882352941176E-2</c:v>
+                  <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98529411764705888</c:v>
+                  <c:v>0.88235294117647056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17073,6 +17168,8 @@
         <c:crossAx val="836850880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -17178,10 +17275,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Wavelength-Dashboard.xlsx]_BugsData!PivotTable3</c:name>
-    <c:fmtId val="2"/>
-  </c:pivotSource>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -17203,9 +17297,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>Bugs Fixed by Sprint</a:t>
             </a:r>
+            <a:endParaRPr lang="en-CA" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -17239,326 +17338,29 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>_BugsData!$C$29</c:f>
+              <c:f>_BugsData!$C$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Highest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -17567,6 +17369,297 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#&quot;&quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>_BugsData!$B$42:$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>W1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>W2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>W3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>W4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>W5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>W6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>W7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>_BugsData!$C$42:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5ED5-4CE5-8D1D-8814E379625B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>_BugsData!$D$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#&quot;&quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>_BugsData!$B$42:$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>W1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>W2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>W3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>W4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>W5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>W6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>W7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>_BugsData!$D$42:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5ED5-4CE5-8D1D-8814E379625B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>_BugsData!$E$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#&quot;&quot;" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -17596,7 +17689,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -17626,7 +17718,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>_BugsData!$B$30:$B$37</c:f>
+              <c:f>_BugsData!$B$42:$B$48</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -17655,27 +17747,337 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>_BugsData!$C$30:$C$37</c:f>
+              <c:f>_BugsData!$E$42:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-45E1-4BE6-854E-52258760E7EE}"/>
+              <c16:uniqueId val="{00000002-5ED5-4CE5-8D1D-8814E379625B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>_BugsData!$F$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#&quot;&quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>_BugsData!$B$42:$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>W1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>W2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>W3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>W4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>W5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>W6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>W7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>_BugsData!$F$42:$F$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5ED5-4CE5-8D1D-8814E379625B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>_BugsData!$G$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lowest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#&quot;&quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>_BugsData!$B$42:$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>W1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>W2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>W3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>W4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>W5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>W6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>W7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>_BugsData!$G$42:$G$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5ED5-4CE5-8D1D-8814E379625B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -17683,20 +18085,185 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="2064527616"/>
-        <c:axId val="1506685984"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="918469231"/>
+        <c:axId val="740907967"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>_BugsData!$H$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grand Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#&quot;&quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>_BugsData!$B$42:$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>W1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>W2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>W3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>W4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>W5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>W6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>W7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>_BugsData!$H$42:$H$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5ED5-4CE5-8D1D-8814E379625B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="918469231"/>
+        <c:axId val="740907967"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="2064527616"/>
+        <c:axId val="918469231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -17732,7 +18299,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1506685984"/>
+        <c:crossAx val="740907967"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17740,7 +18307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1506685984"/>
+        <c:axId val="740907967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17761,7 +18328,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -17791,9 +18358,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2064527616"/>
+        <c:crossAx val="918469231"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -17803,6 +18371,41 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -17837,20 +18440,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
 </c:chartSpace>
 </file>
 
@@ -22259,10 +22848,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>1.4705882352941176E-2</c:v>
+                  <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98529411764705888</c:v>
+                  <c:v>0.88235294117647056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -36417,7 +37006,7 @@
 </file>
 
 <file path=xl/charts/style32.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -36621,22 +37210,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -36741,8 +37331,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -36874,19 +37464,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -41069,7 +41660,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1%</a:t>
+            <a:t>12%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -41582,22 +42173,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>213360</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>589788</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>32385</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3211AB76-6A19-4A56-9AD8-A5D8914A5D0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B212678-8925-47D9-8022-5748F32EFB65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41710,7 +42301,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1%</a:t>
+            <a:t>12%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42386,7 +42977,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1%</a:t>
+            <a:t>12%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42893,7 +43484,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1%</a:t>
+            <a:t>12%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42910,7 +43501,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43873.382992476851" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="104" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43883.816099768519" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="109" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -43371,7 +43962,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="104">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="109">
   <r>
     <s v="&lt;jt:forEach items=&quot;${issues}&quot; var=&quot;issue&quot;&gt;&lt;jt:hyperlink address=&quot;${requestContext.canonicalBaseUrl}/browse/${issue.key}&quot; value=&quot;${issue.key}&quot;/&gt;"/>
     <x v="0"/>
@@ -48421,6 +49012,251 @@
   </r>
   <r>
     <s v="key"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <x v="41"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="key"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <x v="41"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="key"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <x v="41"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="key"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <x v="41"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="key"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <x v="41"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="key"/>
     <x v="7"/>
     <m/>
     <m/>
@@ -48472,337 +49308,122 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
         <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -48816,7 +49437,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="691" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -48930,8 +49551,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="691" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -48983,7 +49604,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49021,258 +49642,31 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="4">
+  <pageFields count="3">
     <pageField fld="32" item="9" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
+    <pageField fld="10" item="18" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -49286,7 +49680,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49458,7 +49852,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -49582,7 +49976,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49688,7 +50082,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49932,7 +50326,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50209,7 +50603,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50534,8 +50928,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:C37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:H38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
@@ -50736,7 +51130,18 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item h="1" x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50798,8 +51203,28 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="33"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
   <pageFields count="4">
     <pageField fld="32" item="9" hier="-1"/>
@@ -50810,24 +51235,78 @@
   <dataFields count="1">
     <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
+  <chartFormats count="6">
+    <chartFormat chart="2" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
           <reference field="31" count="1" selected="0">
-            <x v="5"/>
+            <x v="66"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
@@ -50846,7 +51325,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -51272,8 +51751,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -51297,12 +51776,12 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="20">
         <item x="0"/>
-        <item x="1"/>
         <item m="1" x="11"/>
         <item m="1" x="7"/>
+        <item x="1"/>
         <item m="1" x="13"/>
         <item m="1" x="15"/>
         <item m="1" x="10"/>
@@ -51325,8 +51804,6 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51340,32 +51817,34 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="11">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item m="1" x="8"/>
         <item m="1" x="9"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item m="1" x="6"/>
         <item m="1" x="7"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" x="2"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
         <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
@@ -51379,49 +51858,296 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="10"/>
+    <field x="-2"/>
   </rowFields>
   <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <pageFields count="3">
-    <pageField fld="32" hier="-1"/>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
     <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="17" hier="-1"/>
     <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
   </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -51435,7 +52161,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="691" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51713,7 +52439,170 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="691" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="11">
+        <item h="1" x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item h="1" x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52176,137 +53065,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="691" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="691" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52472,122 +53232,337 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="691" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
       <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
         <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
         <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
         <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="44"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="17" hier="-1"/>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
   </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -52601,8 +53576,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="691" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52737,7 +53712,7 @@
   <pageFields count="4">
     <pageField fld="32" item="9" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="17" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
     <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="5">
@@ -52747,7 +53722,7 @@
     <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
     <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
   </dataFields>
-  <chartFormats count="27">
+  <chartFormats count="21">
     <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -52889,7 +53864,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
+    <chartFormat chart="9" format="19" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -52898,7 +53873,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="8">
+    <chartFormat chart="9" format="20">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -52907,7 +53882,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="9">
+    <chartFormat chart="9" format="21">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -52916,7 +53891,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="10">
+    <chartFormat chart="9" format="22">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -52925,7 +53900,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="11">
+    <chartFormat chart="9" format="23">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -52934,61 +53909,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
+    <chartFormat chart="9" format="24">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -53011,8 +53932,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="691" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -53122,7 +54043,7 @@
   <pageFields count="3">
     <pageField fld="32" item="9" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
+    <pageField fld="10" item="17" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -53140,26 +54061,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="D2:E4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="D2:E4" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="D2:E4" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start Date" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="End Date" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start Date" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="End Date" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="Z2:Z9" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table15" displayName="Table15" ref="Z2:Z9" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="Z2:Z9" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Stabilization and Holidays" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Stabilization and Holidays" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -53188,10 +54109,10 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Sprint"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Epics New" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Epics New" dataDxfId="11">
       <calculatedColumnFormula>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Stories Ready" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Stories Ready" dataDxfId="10">
       <calculatedColumnFormula>GETPIVOTDATA("Story Points",#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -53209,7 +54130,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Sprint" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="R&amp;D" totalsRowFunction="sum"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Total" totalsRowFunction="sum" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Total" totalsRowFunction="sum" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="1" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -53224,6 +54145,30 @@
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1806B5DC-C656-4F36-966E-68B99D385350}" name="Table7" displayName="Table7" ref="B41:H49" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7">
+  <autoFilter ref="B41:H49" xr:uid="{E2B1157D-61E0-4EC3-8665-FFED255F56B0}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{5B2D279E-AB16-4A9E-8A02-D3D6F92D2F54}" name="Row Labels" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{BDB0DE5D-1E26-4E6D-93E1-F979B4A421BF}" name="Highest" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{FBCCBBAC-FFB1-4CD3-A886-F077831EB47F}" name="High" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{3C450AC4-B28C-40A5-9B08-A7AA848F7CB7}" name="Medium" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{83F6B828-53A7-40A7-875F-28C1262EB29C}" name="Low" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{A6706322-699F-45DA-A52B-8793EE07D82C}" name="Lowest" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{CA021076-F152-4649-A69C-A330EF2F2ECF}" name="Grand Total" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -55121,6 +56066,321 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride6.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
@@ -55163,8 +56423,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
@@ -55295,8 +56555,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.77734375" bestFit="1" customWidth="1"/>
@@ -55478,8 +56738,8 @@
   <cols>
     <col min="1" max="1" width="11.5546875" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -55637,17 +56897,21 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -55756,7 +57020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
         <v>50</v>
       </c>
@@ -55765,7 +57029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>135</v>
       </c>
@@ -55773,7 +57037,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>9</v>
       </c>
@@ -55781,7 +57045,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>113</v>
       </c>
@@ -55789,7 +57053,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>0</v>
       </c>
@@ -55797,78 +57061,431 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C29" t="s">
-        <v>160</v>
+      <c r="C30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="17" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C31" s="20">
+        <v>2</v>
+      </c>
+      <c r="D31" s="20">
         <v>1</v>
       </c>
+      <c r="E31" s="20">
+        <v>1</v>
+      </c>
+      <c r="F31" s="20">
+        <v>1</v>
+      </c>
+      <c r="G31" s="20">
+        <v>1</v>
+      </c>
+      <c r="H31" s="20">
+        <v>6</v>
+      </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="17" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="17" t="s">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C32" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="17" t="s">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20">
         <v>1</v>
       </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="17" t="s">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="C34" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="C35" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="17" t="s">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="C36" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="17" t="s">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C38" s="20">
         <v>2</v>
       </c>
+      <c r="D38" s="20">
+        <v>1</v>
+      </c>
+      <c r="E38" s="20">
+        <v>1</v>
+      </c>
+      <c r="F38" s="20">
+        <v>2</v>
+      </c>
+      <c r="G38" s="20">
+        <v>1</v>
+      </c>
+      <c r="H38" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="F41" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="H41" s="83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="17" t="str">
+        <f>B31</f>
+        <v>W1</v>
+      </c>
+      <c r="C42" s="20">
+        <f>IF(C31=0,"",C31)</f>
+        <v>2</v>
+      </c>
+      <c r="D42" s="20">
+        <f t="shared" ref="D42:H42" si="0">IF(D31=0,"",D31)</f>
+        <v>1</v>
+      </c>
+      <c r="E42" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G42" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H42" s="20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="17" t="str">
+        <f t="shared" ref="B43:B48" si="1">B32</f>
+        <v>W2</v>
+      </c>
+      <c r="C43" s="20" t="str">
+        <f t="shared" ref="C43:H48" si="2">IF(C32=0,"",C32)</f>
+        <v/>
+      </c>
+      <c r="D43" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E43" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F43" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G43" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H43" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>W3</v>
+      </c>
+      <c r="C44" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D44" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E44" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F44" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G44" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H44" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>W4</v>
+      </c>
+      <c r="C45" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D45" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E45" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F45" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G45" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H45" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>W5</v>
+      </c>
+      <c r="C46" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D46" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E46" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F46" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G46" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H46" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>W6</v>
+      </c>
+      <c r="C47" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D47" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E47" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F47" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G47" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H47" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>W7</v>
+      </c>
+      <c r="C48" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D48" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E48" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F48" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G48" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H48" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="81">
+        <f t="shared" ref="C49:G49" si="3">C38</f>
+        <v>2</v>
+      </c>
+      <c r="D49" s="81">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E49" s="81">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F49" s="81">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G49" s="81">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H49" s="81">
+        <f>H38</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K52" s="82"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AV105"/>
+  <dimension ref="A1:AV110"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -58734,20 +60351,160 @@
         <v>218</v>
       </c>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
       <c r="E105" s="19" t="s">
-        <v>236</v>
+        <v>81</v>
+      </c>
+      <c r="AF105" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG105" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH105" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL105" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="AT105" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AU105" s="5" t="s">
+    </row>
+    <row r="106" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF106" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG106" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH106" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL106" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT106" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="107" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF107" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG107" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH107" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL107" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT107" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="108" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF108" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG108" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH108" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL108" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT108" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="109" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF109" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG109" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH109" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL109" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT109" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="AT110" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AU110" s="5" t="s">
         <v>119</v>
       </c>
     </row>
@@ -58935,21 +60692,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AF42" sqref="AF42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5546875" customWidth="1"/>
     <col min="13" max="13" width="14.109375" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" customWidth="1"/>
@@ -58960,9 +60719,9 @@
     <col min="21" max="21" width="14.109375" customWidth="1"/>
     <col min="22" max="24" width="15.77734375" customWidth="1"/>
     <col min="26" max="26" width="22.77734375" customWidth="1"/>
-    <col min="28" max="28" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="29.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
@@ -58990,22 +60749,22 @@
       <c r="P1" t="s">
         <v>256</v>
       </c>
-      <c r="Q1" s="80" t="s">
+      <c r="Q1" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80" t="s">
+      <c r="R1" s="84"/>
+      <c r="S1" s="84" t="s">
         <v>255</v>
       </c>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80" t="s">
+      <c r="T1" s="84"/>
+      <c r="U1" s="84" t="s">
         <v>260</v>
       </c>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80" t="s">
+      <c r="V1" s="84"/>
+      <c r="W1" s="84" t="s">
         <v>256</v>
       </c>
-      <c r="X1" s="80"/>
+      <c r="X1" s="84"/>
       <c r="AB1" s="16" t="s">
         <v>135</v>
       </c>
@@ -59019,7 +60778,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>1.4705882352941176E-2</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -59097,7 +60856,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.98529411764705888</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="D3" s="26">
         <v>43873</v>
@@ -59325,7 +61084,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43873</v>
+        <v>43883</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>265</v>
@@ -59899,7 +61658,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>1.4705882352941176E-2</v>
+        <v>0.11764705882352941</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
@@ -59908,7 +61667,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.98529411764705888</v>
+        <v>0.88235294117647056</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
@@ -60518,22 +62277,22 @@
     <mergeCell ref="W1:X1"/>
   </mergeCells>
   <conditionalFormatting sqref="B41">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="notEqual">
       <formula>$A$41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="notEqual">
       <formula>$D$42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="notEqual">
       <formula>$G$42</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="notEqual">
       <formula>$J$42</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60593,11 +62352,11 @@
     <col min="34" max="34" width="12.77734375" customWidth="1"/>
     <col min="35" max="35" width="12.33203125" customWidth="1"/>
     <col min="36" max="36" width="9.109375" style="47"/>
-    <col min="38" max="38" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="29" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="26.109375" bestFit="1" customWidth="1"/>
@@ -60605,49 +62364,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A1" s="81"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82" t="s">
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82" t="s">
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86" t="s">
         <v>255</v>
       </c>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82" t="s">
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86" t="s">
         <v>260</v>
       </c>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82" t="s">
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86" t="s">
         <v>261</v>
       </c>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
     </row>
     <row r="2" spans="1:42" s="55" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="s">
@@ -61798,13 +63557,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" customWidth="1"/>
     <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>

--- a/blueprint-jira-better-excel/Wavelength-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Wavelength-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C4EB25-CBF2-4792-8C71-895062F18A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FD8F25-0A9F-4CF4-B499-562B3CC4595D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId19"/>
+    <pivotCache cacheId="189" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -1938,10 +1938,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.11764705882352941</c:v>
+                  <c:v>0.13432835820895522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0.86567164179104483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5097,10 +5097,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.11764705882352941</c:v>
+                  <c:v>0.13432835820895522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0.86567164179104483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8434,10 +8434,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.11764705882352941</c:v>
+                  <c:v>0.13432835820895522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0.86567164179104483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22848,10 +22848,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.11764705882352941</c:v>
+                  <c:v>0.13432835820895522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0.86567164179104483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41660,7 +41660,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>12%</a:t>
+            <a:t>13%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42301,7 +42301,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>12%</a:t>
+            <a:t>13%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42977,7 +42977,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>12%</a:t>
+            <a:t>13%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43484,7 +43484,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>12%</a:t>
+            <a:t>13%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43501,7 +43501,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43883.816099768519" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="109" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43886.778058796299" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="109" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -49308,8 +49308,286 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="189" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="189" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -49361,7 +49639,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49399,145 +49677,312 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
         <item m="1" x="3"/>
-        <item x="0"/>
         <item x="2"/>
         <item x="1"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="3">
+  <pageFields count="4">
     <pageField fld="32" item="9" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
+    <pageField fld="10" item="17" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
   </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -49551,122 +49996,337 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
       <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
         <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
         <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
         <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="44"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="18" hier="-1"/>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
   </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -49680,7 +50340,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49852,7 +50512,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -49976,7 +50636,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50082,7 +50742,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50326,7 +50986,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50603,7 +51263,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50928,404 +51588,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:H38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="74">
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="66"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="70"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="71"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="65"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="67"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="68"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="69"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="72"/>
-        <item h="1" m="1" x="63"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item h="1" x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="33"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="66"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -51750,9 +52013,406 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:H38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="74">
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="66"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="70"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="71"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="65"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="67"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="68"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="69"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="72"/>
+        <item h="1" m="1" x="63"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item h="1" x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="33"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="66"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="189" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -51887,7 +52547,7 @@
   <pageFields count="4">
     <pageField fld="32" item="9" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="17" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
     <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="5">
@@ -51897,7 +52557,7 @@
     <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
     <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
   </dataFields>
-  <chartFormats count="27">
+  <chartFormats count="21">
     <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -52039,7 +52699,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
+    <chartFormat chart="9" format="19" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -52048,7 +52708,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="8">
+    <chartFormat chart="9" format="20">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -52057,7 +52717,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="9">
+    <chartFormat chart="9" format="21">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -52066,7 +52726,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="10">
+    <chartFormat chart="9" format="22">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -52075,7 +52735,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="11">
+    <chartFormat chart="9" format="23">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -52084,61 +52744,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
+    <chartFormat chart="9" format="24">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -52161,8 +52767,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="189" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -52186,12 +52792,35 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52229,44 +52858,19 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
   <colItems count="1">
     <i/>
@@ -52274,158 +52878,11 @@
   <pageFields count="3">
     <pageField fld="32" item="9" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
+    <pageField fld="10" item="17" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -52439,7 +52896,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52602,7 +53059,121 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="189" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="189" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53065,8 +53636,137 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="189" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53231,709 +53931,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="189" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -54043,7 +54043,7 @@
   <pageFields count="3">
     <pageField fld="32" item="9" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="17" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
@@ -60692,19 +60692,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AF42" sqref="AF42"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="24.44140625" bestFit="1" customWidth="1"/>
@@ -60777,8 +60775,8 @@
         <v>137</v>
       </c>
       <c r="B2" s="44">
-        <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.11764705882352941</v>
+        <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$9),0%)</f>
+        <v>0.13432835820895522</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -60856,7 +60854,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.88235294117647056</v>
+        <v>0.86567164179104483</v>
       </c>
       <c r="D3" s="26">
         <v>43873</v>
@@ -61084,7 +61082,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43883</v>
+        <v>43886</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>265</v>
@@ -61657,8 +61655,8 @@
         <v>137</v>
       </c>
       <c r="B22" s="44">
-        <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$4:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$4:$Z$9),0%)</f>
-        <v>0.11764705882352941</v>
+        <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$9),0%)</f>
+        <v>0.13432835820895522</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
@@ -61667,7 +61665,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.88235294117647056</v>
+        <v>0.86567164179104483</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">

--- a/blueprint-jira-better-excel/Wavelength-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Wavelength-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FD8F25-0A9F-4CF4-B499-562B3CC4595D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9912612-C09F-4FF6-9080-2FBA6B375F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="189" r:id="rId19"/>
+    <pivotCache cacheId="255" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -4748,6 +4748,24 @@
                 <c:pt idx="1">
                   <c:v>200</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8085,6 +8103,24 @@
                 <c:pt idx="1">
                   <c:v>200</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10232,6 +10268,24 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -21596,21 +21650,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -21653,6 +21693,24 @@
                   <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>470</c:v>
                 </c:pt>
               </c:numCache>
@@ -43501,7 +43559,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43886.778058796299" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="109" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43886.875072800925" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="109" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -49308,8 +49366,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="189" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="255" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -49338,7 +49396,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49376,9 +49434,146 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="11">
+        <item h="1" x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item h="1" x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
@@ -49392,187 +49587,49 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="-2"/>
+    <field x="10"/>
   </rowFields>
   <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
   </colItems>
   <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="32" hier="-1"/>
     <pageField fld="1" hier="-1"/>
     <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
   </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -49585,8 +49642,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="189" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="255" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49995,352 +50052,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50512,7 +50225,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -50636,7 +50349,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50742,7 +50455,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50986,7 +50699,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51263,7 +50976,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51588,7 +51301,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -52014,7 +51727,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B29:H38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -52411,178 +52124,127 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="189" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
         <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
         <item x="1"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="-2"/>
+    <field x="44"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="9">
     <i>
-      <x/>
-    </i>
-    <i i="1">
       <x v="1"/>
     </i>
-    <i i="2">
+    <i>
       <x v="2"/>
     </i>
-    <i i="3">
+    <i>
       <x v="3"/>
     </i>
-    <i i="4">
+    <i>
       <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
   </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -52591,16 +52253,103 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
+    <chartFormat chart="2" format="2">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="11">
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -52609,146 +52358,98 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="12">
+    <chartFormat chart="3" format="11">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="13">
+    <chartFormat chart="3" format="12">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="14">
+    <chartFormat chart="3" format="13">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
             <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="15">
+    <chartFormat chart="3" format="15">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
+    <chartFormat chart="3" format="16">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="23">
+    <chartFormat chart="3" format="17">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="4" format="24">
+    <chartFormat chart="3" format="18">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -52767,413 +52468,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="189" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="17" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="11">
-        <item h="1" x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item h="1" x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="189" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="189" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="255" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53636,8 +52931,642 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="189" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="255" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="255" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="255" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53765,8 +53694,137 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="255" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="17" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53932,7 +53990,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="189" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="255" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -60700,7 +60758,7 @@
     <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
@@ -62780,7 +62838,10 @@
         <v>43900</v>
       </c>
       <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
+      <c r="E5" s="58">
+        <f>_ReleaseData!$Q$25</f>
+        <v>470</v>
+      </c>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
@@ -62794,7 +62855,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L5" s="59"/>
-      <c r="M5" s="58"/>
+      <c r="M5" s="58">
+        <f>_ReleaseData!$Q$26</f>
+        <v>200</v>
+      </c>
       <c r="N5" s="40"/>
       <c r="O5" s="40"/>
       <c r="P5" s="40"/>
@@ -62808,7 +62872,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T5" s="57"/>
-      <c r="U5" s="58"/>
+      <c r="U5" s="58">
+        <f>_ReleaseData!$Q$27</f>
+        <v>200</v>
+      </c>
       <c r="V5" s="40"/>
       <c r="W5" s="40"/>
       <c r="X5" s="40"/>
@@ -62822,7 +62889,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB5" s="57"/>
-      <c r="AC5" s="58"/>
+      <c r="AC5" s="58">
+        <f>_ReleaseData!$Q$28</f>
+        <v>60</v>
+      </c>
       <c r="AD5" s="40"/>
       <c r="AE5" s="40"/>
       <c r="AF5" s="40"/>
@@ -62847,7 +62917,10 @@
         <v>43914</v>
       </c>
       <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
+      <c r="E6" s="58">
+        <f>_ReleaseData!$Q$25</f>
+        <v>470</v>
+      </c>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
@@ -62861,7 +62934,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L6" s="59"/>
-      <c r="M6" s="58"/>
+      <c r="M6" s="58">
+        <f>_ReleaseData!$Q$26</f>
+        <v>200</v>
+      </c>
       <c r="N6" s="40"/>
       <c r="O6" s="40"/>
       <c r="P6" s="40"/>
@@ -62875,7 +62951,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T6" s="57"/>
-      <c r="U6" s="58"/>
+      <c r="U6" s="58">
+        <f>_ReleaseData!$Q$27</f>
+        <v>200</v>
+      </c>
       <c r="V6" s="40"/>
       <c r="W6" s="40"/>
       <c r="X6" s="40"/>
@@ -62889,7 +62968,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB6" s="57"/>
-      <c r="AC6" s="58"/>
+      <c r="AC6" s="58">
+        <f>_ReleaseData!$Q$28</f>
+        <v>60</v>
+      </c>
       <c r="AD6" s="40"/>
       <c r="AE6" s="40"/>
       <c r="AF6" s="40"/>
@@ -62914,7 +62996,10 @@
         <v>43928</v>
       </c>
       <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
+      <c r="E7" s="58">
+        <f>_ReleaseData!$Q$25</f>
+        <v>470</v>
+      </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
@@ -62928,7 +63013,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L7" s="59"/>
-      <c r="M7" s="58"/>
+      <c r="M7" s="58">
+        <f>_ReleaseData!$Q$26</f>
+        <v>200</v>
+      </c>
       <c r="N7" s="40"/>
       <c r="O7" s="40"/>
       <c r="P7" s="40"/>
@@ -62942,7 +63030,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T7" s="57"/>
-      <c r="U7" s="58"/>
+      <c r="U7" s="58">
+        <f>_ReleaseData!$Q$27</f>
+        <v>200</v>
+      </c>
       <c r="V7" s="40"/>
       <c r="W7" s="40"/>
       <c r="X7" s="40"/>
@@ -62956,7 +63047,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB7" s="57"/>
-      <c r="AC7" s="58"/>
+      <c r="AC7" s="58">
+        <f>_ReleaseData!$Q$28</f>
+        <v>60</v>
+      </c>
       <c r="AD7" s="40"/>
       <c r="AE7" s="40"/>
       <c r="AF7" s="40"/>
@@ -62987,7 +63081,10 @@
         <v>43942</v>
       </c>
       <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
+      <c r="E8" s="58">
+        <f>_ReleaseData!$Q$25</f>
+        <v>470</v>
+      </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
@@ -63001,7 +63098,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L8" s="59"/>
-      <c r="M8" s="58"/>
+      <c r="M8" s="58">
+        <f>_ReleaseData!$Q$26</f>
+        <v>200</v>
+      </c>
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
       <c r="P8" s="40"/>
@@ -63015,7 +63115,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T8" s="57"/>
-      <c r="U8" s="58"/>
+      <c r="U8" s="58">
+        <f>_ReleaseData!$Q$27</f>
+        <v>200</v>
+      </c>
       <c r="V8" s="40"/>
       <c r="W8" s="40"/>
       <c r="X8" s="40"/>
@@ -63029,7 +63132,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB8" s="57"/>
-      <c r="AC8" s="58"/>
+      <c r="AC8" s="58">
+        <f>_ReleaseData!$Q$28</f>
+        <v>60</v>
+      </c>
       <c r="AD8" s="40"/>
       <c r="AE8" s="40"/>
       <c r="AF8" s="40"/>
@@ -63060,7 +63166,10 @@
         <v>43956</v>
       </c>
       <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
+      <c r="E9" s="58">
+        <f>_ReleaseData!$Q$25</f>
+        <v>470</v>
+      </c>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
@@ -63074,7 +63183,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L9" s="59"/>
-      <c r="M9" s="58"/>
+      <c r="M9" s="58">
+        <f>_ReleaseData!$Q$26</f>
+        <v>200</v>
+      </c>
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
       <c r="P9" s="40"/>
@@ -63088,7 +63200,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T9" s="57"/>
-      <c r="U9" s="58"/>
+      <c r="U9" s="58">
+        <f>_ReleaseData!$Q$27</f>
+        <v>200</v>
+      </c>
       <c r="V9" s="40"/>
       <c r="W9" s="40"/>
       <c r="X9" s="40"/>
@@ -63102,7 +63217,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB9" s="57"/>
-      <c r="AC9" s="58"/>
+      <c r="AC9" s="58">
+        <f>_ReleaseData!$Q$28</f>
+        <v>60</v>
+      </c>
       <c r="AD9" s="40"/>
       <c r="AE9" s="40"/>
       <c r="AF9" s="40"/>
@@ -63127,7 +63245,10 @@
         <v>43970</v>
       </c>
       <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
+      <c r="E10" s="58">
+        <f>_ReleaseData!$Q$25</f>
+        <v>470</v>
+      </c>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
@@ -63141,7 +63262,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L10" s="59"/>
-      <c r="M10" s="58"/>
+      <c r="M10" s="58">
+        <f>_ReleaseData!$Q$26</f>
+        <v>200</v>
+      </c>
       <c r="N10" s="40"/>
       <c r="O10" s="40"/>
       <c r="P10" s="40"/>
@@ -63155,7 +63279,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T10" s="57"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="58">
+        <f>_ReleaseData!$Q$27</f>
+        <v>200</v>
+      </c>
       <c r="V10" s="40"/>
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
@@ -63169,7 +63296,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AB10" s="57"/>
-      <c r="AC10" s="58"/>
+      <c r="AC10" s="58">
+        <f>_ReleaseData!$Q$28</f>
+        <v>60</v>
+      </c>
       <c r="AD10" s="40"/>
       <c r="AE10" s="40"/>
       <c r="AF10" s="40"/>

--- a/blueprint-jira-better-excel/Wavelength-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Wavelength-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9912612-C09F-4FF6-9080-2FBA6B375F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88364F3-D71B-460E-BD59-EB5152920A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="255" r:id="rId19"/>
+    <pivotCache cacheId="46" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -1938,10 +1938,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.13432835820895522</c:v>
+                  <c:v>0.14925373134328357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86567164179104483</c:v>
+                  <c:v>0.85074626865671643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2454,6 +2454,9 @@
                   <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -3911,6 +3914,9 @@
                   <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>138.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4256,6 +4262,9 @@
                   <c:v>191.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -4329,6 +4338,9 @@
                   <c:v>124.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4404,6 +4416,9 @@
                   <c:v>120.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4477,6 +4492,9 @@
                   <c:v>55.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>93.699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5115,10 +5133,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.13432835820895522</c:v>
+                  <c:v>0.14925373134328357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86567164179104483</c:v>
+                  <c:v>0.85074626865671643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5631,6 +5649,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -7097,6 +7118,9 @@
                   <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7652,6 +7676,9 @@
                   <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -7725,6 +7752,9 @@
                   <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7800,6 +7830,9 @@
                   <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7873,6 +7906,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-100</c:v>
                 </c:pt>
               </c:numCache>
@@ -8470,10 +8506,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.13432835820895522</c:v>
+                  <c:v>0.14925373134328357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86567164179104483</c:v>
+                  <c:v>0.85074626865671643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8986,6 +9022,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -9433,6 +9472,9 @@
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9778,6 +9820,9 @@
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -9851,6 +9896,9 @@
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9926,6 +9974,9 @@
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -9999,6 +10050,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-100</c:v>
                 </c:pt>
               </c:numCache>
@@ -11420,6 +11474,9 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -11549,6 +11606,9 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>241.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15293,6 +15353,9 @@
                   <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -15527,7 +15590,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint Wavelength1 Progress</c:v>
+              <c:v>Sprint Wavelength2 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -16019,16 +16082,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20851,6 +20911,9 @@
                   <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>442.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -21196,6 +21259,9 @@
                   <c:v>520.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
@@ -21269,6 +21335,9 @@
                   <c:v>443.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -21344,6 +21413,9 @@
                   <c:v>378.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>461.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -21417,6 +21489,9 @@
                   <c:v>55.799999999999955</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>130.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -22906,10 +22981,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.13432835820895522</c:v>
+                  <c:v>0.14925373134328357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86567164179104483</c:v>
+                  <c:v>0.85074626865671643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41718,7 +41793,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>13%</a:t>
+            <a:t>15%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42096,7 +42171,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>26</a:t>
+            <a:t>11</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -42359,7 +42434,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>13%</a:t>
+            <a:t>15%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43035,7 +43110,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>13%</a:t>
+            <a:t>15%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43542,7 +43617,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>13%</a:t>
+            <a:t>15%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43559,7 +43634,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43886.875072800925" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="109" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43887.324144675928" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="109" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -43754,63 +43829,63 @@
         <s v="Wavelength5"/>
         <s v="Wavelength6"/>
         <s v="Wavelength7"/>
-        <s v="Quasar1" u="1"/>
-        <s v="Titan7" u="1"/>
-        <s v="Quasar2" u="1"/>
-        <s v="Quasar3" u="1"/>
-        <s v="Quasar4" u="1"/>
-        <s v="Quasar5" u="1"/>
-        <s v="Quasar6" u="1"/>
         <s v="Pegasus2" u="1"/>
-        <s v="Quasar7" u="1"/>
-        <s v="Quasar8" u="1"/>
-        <s v="Quasar9" u="1"/>
-        <s v="Pegasus5" u="1"/>
-        <s v="Pegasus8" u="1"/>
+        <s v="Rocket1" u="1"/>
+        <s v="Pegasus7" u="1"/>
+        <s v="Ursa1" u="1"/>
+        <s v="Rocket2" u="1"/>
+        <s v="Ursa7" u="1"/>
+        <s v="Rocket3" u="1"/>
+        <s v="Quasar14" u="1"/>
+        <s v="Rocket4" u="1"/>
+        <s v="Pegasus1" u="1"/>
+        <s v="Pegasus6" u="1"/>
+        <s v="Rocket5" u="1"/>
         <s v="Ursa6" u="1"/>
-        <s v="Ursa4" u="1"/>
-        <s v="Venus3" u="1"/>
-        <s v="Quasar12" u="1"/>
-        <s v="Ursa2" u="1"/>
-        <s v="Titan3" u="1"/>
-        <s v="Venus6" u="1"/>
-        <s v="Titan6" u="1"/>
-        <s v="Pegasus3" u="1"/>
-        <s v="Pegasus6" u="1"/>
-        <s v="Venus2" u="1"/>
-        <s v="Quasar10" u="1"/>
-        <s v="Saturn1" u="1"/>
-        <s v="Saturn2" u="1"/>
-        <s v="Saturn3" u="1"/>
-        <s v="Quasar13" u="1"/>
-        <s v="Titan2" u="1"/>
-        <s v="Saturn4" u="1"/>
-        <s v="Saturn5" u="1"/>
-        <s v="Saturn6" u="1"/>
-        <s v="Saturn7" u="1"/>
-        <s v="Venus5" u="1"/>
-        <s v="Titan5" u="1"/>
-        <s v="Ursa7" u="1"/>
-        <s v="Ursa5" u="1"/>
-        <s v="Rocket1" u="1"/>
-        <s v="Rocket2" u="1"/>
-        <s v="Ursa3" u="1"/>
-        <s v="Rocket3" u="1"/>
-        <s v="Rocket4" u="1"/>
-        <s v="Ursa1" u="1"/>
-        <s v="Rocket5" u="1"/>
         <s v="Rocket6" u="1"/>
         <s v="Rocket7" u="1"/>
-        <s v="Pegasus1" u="1"/>
+        <s v="Saturn1" u="1"/>
+        <s v="Quasar13" u="1"/>
+        <s v="Venus1" u="1"/>
+        <s v="Quasar1" u="1"/>
+        <s v="Pegasus5" u="1"/>
+        <s v="Ursa5" u="1"/>
+        <s v="Saturn2" u="1"/>
+        <s v="Venus2" u="1"/>
+        <s v="Quasar2" u="1"/>
+        <s v="Venus3" u="1"/>
+        <s v="Saturn3" u="1"/>
+        <s v="Venus4" u="1"/>
+        <s v="Quasar3" u="1"/>
+        <s v="Saturn4" u="1"/>
+        <s v="Titan1" u="1"/>
+        <s v="Venus5" u="1"/>
+        <s v="Quasar12" u="1"/>
+        <s v="Ursa4" u="1"/>
+        <s v="Quasar4" u="1"/>
+        <s v="Titan2" u="1"/>
+        <s v="Saturn5" u="1"/>
+        <s v="Venus6" u="1"/>
         <s v="Pegasus4" u="1"/>
-        <s v="Venus1" u="1"/>
-        <s v="Pegasus7" u="1"/>
-        <s v="Titan1" u="1"/>
+        <s v="Titan3" u="1"/>
+        <s v="Quasar5" u="1"/>
+        <s v="Venus7" u="1"/>
+        <s v="Saturn6" u="1"/>
+        <s v="Titan4" u="1"/>
+        <s v="Quasar6" u="1"/>
+        <s v="Saturn7" u="1"/>
+        <s v="Titan5" u="1"/>
+        <s v="Ursa3" u="1"/>
+        <s v="Quasar7" u="1"/>
+        <s v="Titan6" u="1"/>
         <s v="Quasar11" u="1"/>
-        <s v="Quasar14" u="1"/>
-        <s v="Venus4" u="1"/>
-        <s v="Titan4" u="1"/>
-        <s v="Venus7" u="1"/>
+        <s v="Titan7" u="1"/>
+        <s v="Quasar8" u="1"/>
+        <s v="Pegasus3" u="1"/>
+        <s v="Pegasus8" u="1"/>
+        <s v="Quasar9" u="1"/>
+        <s v="Ursa2" u="1"/>
+        <s v="Quasar10" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Sprint Label" numFmtId="0">
@@ -43824,70 +43899,70 @@
         <s v="W5"/>
         <s v="W6"/>
         <s v="W7"/>
-        <s v="U1" u="1"/>
-        <s v="R6" u="1"/>
-        <s v="Q1" u="1"/>
+        <s v="U2" u="1"/>
+        <s v="$[SUBSTITUTE(SUBSTITUTE(AE2, &quot;itan&quot;, &quot;&quot;), &quot;aturn&quot;, &quot;&quot;)]" u="1"/>
+        <s v="V7" u="1"/>
+        <s v="U4" u="1"/>
+        <s v="T1" u="1"/>
+        <s v="U6" u="1"/>
+        <s v="T3" u="1"/>
+        <s v="T5" u="1"/>
+        <s v="S2" u="1"/>
+        <s v="Q10" u="1"/>
+        <s v="T7" u="1"/>
+        <s v="Q11" u="1"/>
         <s v="S4" u="1"/>
-        <s v="U7" u="1"/>
-        <s v="T2" u="1"/>
-        <s v="Q7" u="1"/>
-        <s v="P2" u="1"/>
-        <s v="V5" u="1"/>
+        <s v="R1" u="1"/>
+        <s v="Q12" u="1"/>
+        <s v="S6" u="1"/>
+        <s v="Q13" u="1"/>
+        <s v="R3" u="1"/>
+        <s v="Q14" u="1"/>
         <s v="R5" u="1"/>
-        <s v="S3" u="1"/>
-        <s v="$[SUBSTITUTE(SUBSTITUTE(AE2, &quot;rsa&quot;, &quot;&quot;), &quot;itan&quot;, &quot;&quot;)]" u="1"/>
-        <s v="U6" u="1"/>
-        <s v="T1" u="1"/>
-        <s v="$[SUBSTITUTE(SUBSTITUTE(AE2, &quot;aturn&quot;, &quot;&quot;), &quot;ocket&quot;, &quot;&quot;)]" u="1"/>
-        <s v="Q6" u="1"/>
-        <s v="P1" u="1"/>
-        <s v="Q10" u="1"/>
-        <s v="Q11" u="1"/>
-        <s v="Q12" u="1"/>
-        <s v="V4" u="1"/>
-        <s v="Q13" u="1"/>
-        <s v="Q14" u="1"/>
-        <s v="R4" u="1"/>
-        <s v="T7" u="1"/>
-        <s v="S2" u="1"/>
+        <s v="Q2" u="1"/>
+        <s v="R7" u="1"/>
         <s v="$[SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE2, &quot;ocket&quot;, &quot;&quot;), &quot;uasar&quot;, &quot;&quot;), &quot;egasus&quot;, &quot;&quot;)]" u="1"/>
         <s v="$[SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE3, &quot;ocket&quot;, &quot;&quot;), &quot;uasar&quot;, &quot;&quot;), &quot;egasus&quot;, &quot;&quot;)]" u="1"/>
+        <s v="Q4" u="1"/>
+        <s v="P1" u="1"/>
+        <s v="Q6" u="1"/>
+        <s v="$[SUBSTITUTE(SUBSTITUTE(AE2, &quot;enus&quot;, &quot;&quot;), &quot;rsa&quot;, &quot;&quot;)]" u="1"/>
+        <s v="P3" u="1"/>
+        <s v="V2" u="1"/>
+        <s v="Q8" u="1"/>
+        <s v="P5" u="1"/>
+        <s v="V4" u="1"/>
+        <s v="U1" u="1"/>
+        <s v="$[=SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE3, &quot;ocket&quot;, &quot;&quot;), &quot;uasar&quot;, &quot;&quot;), &quot;egasus&quot;, &quot;&quot;)]" u="1"/>
+        <s v="V6" u="1"/>
+        <s v="U3" u="1"/>
         <s v="U5" u="1"/>
-        <s v="$[=SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE3, &quot;ocket&quot;, &quot;&quot;), &quot;uasar&quot;, &quot;&quot;), &quot;egasus&quot;, &quot;&quot;)]" u="1"/>
+        <s v="T2" u="1"/>
+        <s v="U7" u="1"/>
+        <s v="T4" u="1"/>
+        <s v="S1" u="1"/>
+        <s v="T6" u="1"/>
+        <s v="S3" u="1"/>
+        <s v="S5" u="1"/>
+        <s v="R2" u="1"/>
+        <s v="$[SUBSTITUTE(SUBSTITUTE(AE2, &quot;aturn&quot;, &quot;&quot;), &quot;ocket&quot;, &quot;&quot;)]" u="1"/>
+        <s v="S7" u="1"/>
+        <s v="R4" u="1"/>
+        <s v="Q1" u="1"/>
+        <s v="$[SUBSTITUTE(AE2, &quot;uasar&quot;, &quot;&quot;)]" u="1"/>
+        <s v="R6" u="1"/>
+        <s v="$[SUBSTITUTE(SUBSTITUTE(AE2, &quot;rsa&quot;, &quot;&quot;), &quot;itan&quot;, &quot;&quot;)]" u="1"/>
+        <s v="Q3" u="1"/>
         <s v="Q5" u="1"/>
+        <s v="P2" u="1"/>
+        <s v="V1" u="1"/>
+        <s v="Q7" u="1"/>
+        <s v="P4" u="1"/>
         <s v="V3" u="1"/>
-        <s v="R3" u="1"/>
-        <s v="T6" u="1"/>
-        <s v="S1" u="1"/>
+        <s v="Q9" u="1"/>
+        <s v="$[= SUBSTITUTE('Last Sprint', &quot;uasar&quot;, &quot;&quot;)]" u="1"/>
         <s v="P6" u="1"/>
-        <s v="U4" u="1"/>
-        <s v="$[SUBSTITUTE(AE2, &quot;uasar&quot;, &quot;&quot;)]" u="1"/>
-        <s v="Q4" u="1"/>
-        <s v="V2" u="1"/>
-        <s v="S7" u="1"/>
-        <s v="$[SUBSTITUTE(SUBSTITUTE(AE2, &quot;itan&quot;, &quot;&quot;), &quot;aturn&quot;, &quot;&quot;)]" u="1"/>
-        <s v="R2" u="1"/>
-        <s v="$[= SUBSTITUTE('Last Sprint', &quot;uasar&quot;, &quot;&quot;)]" u="1"/>
-        <s v="T5" u="1"/>
-        <s v="P5" u="1"/>
-        <s v="U3" u="1"/>
-        <s v="Q3" u="1"/>
-        <s v="V1" u="1"/>
-        <s v="S6" u="1"/>
-        <s v="R1" u="1"/>
-        <s v="T4" u="1"/>
-        <s v="Q9" u="1"/>
-        <s v="P4" u="1"/>
-        <s v="V7" u="1"/>
-        <s v="U2" u="1"/>
-        <s v="R7" u="1"/>
-        <s v="Q2" u="1"/>
-        <s v="S5" u="1"/>
-        <s v="T3" u="1"/>
-        <s v="$[SUBSTITUTE(SUBSTITUTE(AE2, &quot;enus&quot;, &quot;&quot;), &quot;rsa&quot;, &quot;&quot;)]" u="1"/>
-        <s v="Q8" u="1"/>
-        <s v="P3" u="1"/>
-        <s v="V6" u="1"/>
+        <s v="V5" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Release" numFmtId="0">
@@ -43896,12 +43971,12 @@
         <m/>
         <s v="Venus"/>
         <s v="Wavelength"/>
+        <s v="Rocket" u="1"/>
         <s v="Titan" u="1"/>
+        <s v="Saturn" u="1"/>
         <s v="Ursa" u="1"/>
-        <s v="Rocket" u="1"/>
-        <s v="Saturn" u="1"/>
+        <s v="Quasar" u="1"/>
         <s v="Pegasus" u="1"/>
-        <s v="Quasar" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Priority" numFmtId="0">
@@ -43954,8 +44029,8 @@
         <s v="ngStars"/>
         <s v="Alpha"/>
         <s v="Titan"/>
+        <s v="QA" u="1"/>
         <s v="SoftTeco" u="1"/>
-        <s v="QA" u="1"/>
         <s v="TechComm" u="1"/>
       </sharedItems>
     </cacheField>
@@ -45424,7 +45499,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45473,7 +45548,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45522,7 +45597,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45571,7 +45646,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45620,7 +45695,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45669,7 +45744,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45718,7 +45793,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -49366,8 +49441,364 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="255" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -49396,7 +49827,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49416,13 +49847,13 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="11">
         <item x="0"/>
+        <item m="1" x="9"/>
         <item m="1" x="8"/>
-        <item m="1" x="9"/>
         <item x="1"/>
+        <item m="1" x="4"/>
         <item m="1" x="6"/>
+        <item m="1" x="5"/>
         <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -49434,27 +49865,44 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
         <item m="1" x="3"/>
-        <item x="0"/>
         <item x="2"/>
         <item x="1"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
@@ -49462,11 +49910,158 @@
   <pageFields count="3">
     <pageField fld="32" item="9" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
   </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -49479,8 +50074,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49553,13 +50148,13 @@
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="11">
         <item h="1" x="0"/>
+        <item m="1" x="9"/>
         <item m="1" x="8"/>
-        <item m="1" x="9"/>
         <item h="1" x="1"/>
+        <item m="1" x="4"/>
         <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item h="1" m="1" x="4"/>
         <item h="1" m="1" x="5"/>
+        <item h="1" m="1" x="7"/>
         <item h="1" x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -49642,8 +50237,2079 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="255" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="74">
+        <item h="1" m="1" x="70"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="63"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="66"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="69"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="67"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="71"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="65"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="68"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="72"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="67">
+        <item x="0"/>
+        <item m="1" x="18"/>
+        <item m="1" x="9"/>
+        <item m="1" x="61"/>
+        <item m="1" x="46"/>
+        <item m="1" x="28"/>
+        <item m="1" x="19"/>
+        <item m="1" x="11"/>
+        <item m="1" x="62"/>
+        <item m="1" x="27"/>
+        <item m="1" x="65"/>
+        <item m="1" x="58"/>
+        <item m="1" x="40"/>
+        <item m="1" x="25"/>
+        <item m="1" x="16"/>
+        <item m="1" x="32"/>
+        <item m="1" x="36"/>
+        <item m="1" x="42"/>
+        <item m="1" x="48"/>
+        <item m="1" x="52"/>
+        <item m="1" x="56"/>
+        <item m="1" x="60"/>
+        <item m="1" x="63"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="17"/>
+        <item m="1" x="20"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="30"/>
+        <item m="1" x="34"/>
+        <item m="1" x="37"/>
+        <item m="1" x="44"/>
+        <item m="1" x="50"/>
+        <item m="1" x="53"/>
+        <item m="1" x="38"/>
+        <item m="1" x="43"/>
+        <item m="1" x="47"/>
+        <item m="1" x="51"/>
+        <item m="1" x="54"/>
+        <item m="1" x="57"/>
+        <item m="1" x="59"/>
+        <item m="1" x="12"/>
+        <item m="1" x="64"/>
+        <item m="1" x="55"/>
+        <item m="1" x="41"/>
+        <item m="1" x="29"/>
+        <item m="1" x="21"/>
+        <item m="1" x="14"/>
+        <item m="1" x="26"/>
+        <item m="1" x="31"/>
+        <item m="1" x="33"/>
+        <item m="1" x="35"/>
+        <item m="1" x="39"/>
+        <item m="1" x="45"/>
+        <item m="1" x="49"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="60" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:H38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="74">
+        <item h="1" m="1" x="70"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="63"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="66"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="69"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="67"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="71"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="65"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="68"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="72"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item h="1" x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="33"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="66"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49716,13 +52382,13 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="11">
         <item x="0"/>
+        <item m="1" x="9"/>
         <item m="1" x="8"/>
-        <item m="1" x="9"/>
         <item x="1"/>
+        <item m="1" x="4"/>
         <item m="1" x="6"/>
+        <item m="1" x="5"/>
         <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -50052,12 +52718,12 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="9">
         <item h="1" x="0"/>
         <item h="1" x="6"/>
@@ -50078,7 +52744,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="20">
         <item x="0"/>
         <item m="1" x="11"/>
@@ -50105,387 +52771,8 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50505,187 +52792,49 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="11">
         <item x="0"/>
+        <item m="1" x="9"/>
         <item m="1" x="8"/>
-        <item m="1" x="9"/>
         <item x="1"/>
+        <item m="1" x="4"/>
         <item m="1" x="6"/>
+        <item m="1" x="5"/>
         <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="4">
+  <pageFields count="3">
     <pageField fld="32" item="9" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
+    <pageField fld="10" item="18" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -50698,301 +52847,26 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="9">
         <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
         <item h="1" x="1"/>
-        <item x="7"/>
+        <item h="1" x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="74">
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="66"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="70"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="71"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="65"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="67"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="68"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="69"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="72"/>
-        <item h="1" m="1" x="63"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51022,93 +52896,22 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="67">
+      <items count="11">
         <item x="0"/>
-        <item m="1" x="56"/>
-        <item m="1" x="16"/>
-        <item m="1" x="30"/>
-        <item m="1" x="57"/>
-        <item m="1" x="20"/>
-        <item m="1" x="31"/>
-        <item m="1" x="59"/>
-        <item m="1" x="21"/>
         <item m="1" x="9"/>
-        <item m="1" x="33"/>
-        <item m="1" x="61"/>
-        <item m="1" x="25"/>
-        <item m="1" x="37"/>
-        <item m="1" x="62"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
+        <item m="1" x="8"/>
         <item x="1"/>
-        <item m="1" x="47"/>
-        <item m="1" x="48"/>
-        <item m="1" x="50"/>
-        <item m="1" x="51"/>
-        <item m="1" x="53"/>
-        <item m="1" x="54"/>
-        <item m="1" x="55"/>
-        <item m="1" x="34"/>
-        <item m="1" x="35"/>
-        <item m="1" x="36"/>
-        <item m="1" x="39"/>
-        <item m="1" x="40"/>
-        <item m="1" x="41"/>
-        <item m="1" x="42"/>
-        <item m="1" x="60"/>
-        <item m="1" x="38"/>
-        <item m="1" x="27"/>
-        <item m="1" x="64"/>
-        <item m="1" x="44"/>
-        <item m="1" x="29"/>
-        <item m="1" x="10"/>
-        <item m="1" x="52"/>
-        <item m="1" x="26"/>
-        <item m="1" x="49"/>
-        <item m="1" x="23"/>
-        <item m="1" x="46"/>
-        <item m="1" x="22"/>
-        <item m="1" x="45"/>
-        <item m="1" x="58"/>
-        <item m="1" x="32"/>
-        <item m="1" x="24"/>
-        <item m="1" x="63"/>
-        <item m="1" x="43"/>
-        <item m="1" x="28"/>
-        <item m="1" x="65"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51132,162 +52935,20 @@
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="59" hier="-1"/>
     <pageField fld="45" item="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -51300,831 +52961,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:H38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="74">
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="66"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="70"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="71"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="65"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="67"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="68"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="69"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="72"/>
-        <item h="1" m="1" x="63"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item h="1" x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="33"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="66"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -52467,8 +53305,137 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="255" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="17" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52541,13 +53508,13 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="11">
         <item x="0"/>
+        <item m="1" x="9"/>
         <item m="1" x="8"/>
-        <item m="1" x="9"/>
         <item x="1"/>
+        <item m="1" x="4"/>
         <item m="1" x="6"/>
+        <item m="1" x="5"/>
         <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -52931,900 +53898,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="255" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="255" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="255" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="255" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="17" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="255" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53874,13 +53949,13 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="11">
         <item x="0"/>
+        <item m="1" x="9"/>
         <item m="1" x="8"/>
-        <item m="1" x="9"/>
         <item x="1"/>
+        <item m="1" x="4"/>
         <item m="1" x="6"/>
+        <item m="1" x="5"/>
         <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -53990,7 +54065,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="255" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -54063,13 +54138,13 @@
     <pivotField axis="axisPage" subtotalTop="0" showAll="0">
       <items count="11">
         <item x="0"/>
+        <item m="1" x="9"/>
         <item m="1" x="8"/>
-        <item m="1" x="9"/>
         <item x="1"/>
+        <item m="1" x="4"/>
         <item m="1" x="6"/>
+        <item m="1" x="5"/>
         <item m="1" x="7"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
         <item x="2"/>
         <item x="3"/>
         <item t="default"/>
@@ -56684,6 +56759,9 @@
       <c r="K7" t="s">
         <v>263</v>
       </c>
+      <c r="L7">
+        <v>77.7</v>
+      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
@@ -56756,7 +56834,7 @@
       </c>
       <c r="L14">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>0</v>
+        <v>77.7</v>
       </c>
       <c r="M14">
         <f>SUBTOTAL(109,Table1[Total])</f>
@@ -56806,7 +56884,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Wavelength1</v>
+        <v>Wavelength2</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -56820,7 +56898,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -56868,7 +56946,7 @@
         <v>175</v>
       </c>
       <c r="E9" s="20">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -56891,16 +56969,14 @@
       <c r="D12" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="E12" s="20">
-        <v>20</v>
-      </c>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D13" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -56909,7 +56985,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -56918,7 +56994,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Venus", "") &amp; " Progress"</f>
-        <v>Sprint Wavelength1 Progress</v>
+        <v>Sprint Wavelength2 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -58681,7 +58757,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Wavelength1</v>
+        <v>Wavelength2</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -58705,7 +58781,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Wavelength1</v>
+        <v>Wavelength2</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>175</v>
@@ -58729,7 +58805,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Wavelength1</v>
+        <v>Wavelength2</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -58753,7 +58829,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Wavelength1</v>
+        <v>Wavelength2</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -58777,7 +58853,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Wavelength1</v>
+        <v>Wavelength2</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -58801,7 +58877,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Wavelength1</v>
+        <v>Wavelength2</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -58822,7 +58898,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Wavelength1</v>
+        <v>Wavelength2</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -60754,16 +60830,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5546875" customWidth="1"/>
     <col min="13" max="13" width="14.109375" customWidth="1"/>
@@ -60834,7 +60910,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$9),0%)</f>
-        <v>0.13432835820895522</v>
+        <v>0.14925373134328357</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -60912,7 +60988,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.86567164179104483</v>
+        <v>0.85074626865671643</v>
       </c>
       <c r="D3" s="26">
         <v>43873</v>
@@ -61005,52 +61081,44 @@
         <v>0.13432835820895522</v>
       </c>
       <c r="M4" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="N4" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Admin")</f>
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O4" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Visio Import/Export")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Visio Import/Export")</f>
-        <v>-2</v>
+        <v>0.08</v>
       </c>
       <c r="P4" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Logging and Audit")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Logging and Audit")</f>
-        <v>-2</v>
+        <v>0.12</v>
       </c>
       <c r="Q4" s="40">
         <f>$Q$25*(100%-K4)</f>
         <v>406.8656716417911</v>
       </c>
       <c r="R4" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+        <v>442.3</v>
       </c>
       <c r="S4" s="42">
         <f>$Q$26*(100%-K4)</f>
         <v>173.13432835820896</v>
       </c>
       <c r="T4" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")</f>
-        <v>150</v>
+        <v>138.30000000000001</v>
       </c>
       <c r="U4" s="40">
         <f>$Q$27*(100%-L4)</f>
         <v>173.13432835820896</v>
       </c>
       <c r="V4" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Visio Import/Export")</f>
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="W4" s="40">
         <f>$Q$28*(100%-K4)</f>
         <v>51.940298507462693</v>
       </c>
       <c r="X4" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Logging and Audit")</f>
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="Z4" s="32">
         <v>43931</v>
@@ -61089,30 +61157,54 @@
         <f>SUM($J$4:J5)/SUM($J$4:$J$10)</f>
         <v>0.28358208955223879</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
+      <c r="M5" s="70">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.25</v>
+      </c>
+      <c r="N5" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Admin")</f>
+        <v>-0.5</v>
+      </c>
+      <c r="O5" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Visio Import/Export")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Visio Import/Export")</f>
+        <v>-2</v>
+      </c>
+      <c r="P5" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Logging and Audit")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Logging and Audit")</f>
+        <v>-2</v>
+      </c>
       <c r="Q5" s="40">
         <f t="shared" ref="Q5:Q9" si="1">$Q$25*(100%-K5)</f>
         <v>336.71641791044777</v>
       </c>
-      <c r="R5" s="42"/>
+      <c r="R5" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S5" s="42">
         <f t="shared" ref="S5:S9" si="2">$Q$26*(100%-K5)</f>
         <v>143.28358208955225</v>
       </c>
-      <c r="T5" s="42"/>
+      <c r="T5" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")</f>
+        <v>150</v>
+      </c>
       <c r="U5" s="40">
         <f t="shared" ref="U5:U9" si="3">$Q$27*(100%-L5)</f>
         <v>143.28358208955225</v>
       </c>
-      <c r="V5" s="42"/>
+      <c r="V5" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Visio Import/Export")</f>
+        <v>150</v>
+      </c>
       <c r="W5" s="40">
         <f t="shared" ref="W5:W9" si="4">$Q$28*(100%-K5)</f>
         <v>42.985074626865675</v>
       </c>
-      <c r="X5" s="42"/>
+      <c r="X5" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Logging and Audit")</f>
+        <v>150</v>
+      </c>
       <c r="Z5" s="32">
         <v>43969</v>
       </c>
@@ -61140,7 +61232,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>265</v>
@@ -61714,7 +61806,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$9),0%)</f>
-        <v>0.13432835820895522</v>
+        <v>0.14925373134328357</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
@@ -61723,7 +61815,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.86567164179104483</v>
+        <v>0.85074626865671643</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
@@ -62699,132 +62791,116 @@
         <v>43886</v>
       </c>
       <c r="D4" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>600</v>
+        <v>573</v>
       </c>
       <c r="E4" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>470</v>
       </c>
       <c r="F4" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="G4" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>461.5</v>
       </c>
       <c r="H4" s="40">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>130.69999999999999</v>
       </c>
       <c r="I4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>442.3</v>
       </c>
       <c r="J4" s="33">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>0.80541012216404884</v>
       </c>
       <c r="K4" s="33">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.22809773123909247</v>
       </c>
       <c r="L4" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>100</v>
+        <v>232</v>
       </c>
       <c r="M4" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>200</v>
       </c>
       <c r="N4" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="O4" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P4" s="40">
         <f t="shared" si="3"/>
-        <v>-50</v>
+        <v>93.699999999999989</v>
       </c>
       <c r="Q4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>150</v>
+        <v>138.30000000000001</v>
       </c>
       <c r="R4" s="33">
         <f t="shared" si="4"/>
-        <v>1.8</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="S4" s="33">
         <f t="shared" si="5"/>
-        <v>-0.5</v>
+        <v>0.40387931034482755</v>
       </c>
       <c r="T4" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Visio Import/Export")</f>
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="U4" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>200</v>
       </c>
       <c r="V4" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Visio Import/Export")</f>
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="W4" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Visio Import/Export")</f>
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="X4" s="40">
         <f t="shared" si="6"/>
-        <v>-100</v>
+        <v>15</v>
       </c>
       <c r="Y4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Visio Import/Export")</f>
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="Z4" s="33">
         <f t="shared" si="7"/>
-        <v>3.6</v>
+        <v>0.72872340425531912</v>
       </c>
       <c r="AA4" s="33">
         <f t="shared" si="8"/>
-        <v>-2</v>
+        <v>7.9787234042553196E-2</v>
       </c>
       <c r="AB4" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Logging and Audit")</f>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="AC4" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>60</v>
       </c>
       <c r="AD4" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Logging and Audit")</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AE4" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Logging and Audit")</f>
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="AF4" s="40">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>7</v>
       </c>
       <c r="AG4" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Logging and Audit")</f>
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="AH4" s="33">
         <f t="shared" si="10"/>
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="33">
         <f t="shared" si="11"/>
-        <v>-2</v>
+        <v>0.11864406779661017</v>
       </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
@@ -62837,73 +62913,133 @@
       <c r="C5" s="60">
         <v>43900</v>
       </c>
-      <c r="D5" s="57"/>
+      <c r="D5" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
+        <v>600</v>
+      </c>
       <c r="E5" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>470</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="33" t="e">
-        <f t="shared" ref="J5" si="12" xml:space="preserve"> G5/D5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="33" t="e">
-        <f t="shared" ref="K5" si="13" xml:space="preserve"> H5/D5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="59"/>
+      <c r="F5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
+        <v>540</v>
+      </c>
+      <c r="H5" s="40">
+        <f t="shared" ref="H5" si="12">D5-I5</f>
+        <v>150</v>
+      </c>
+      <c r="I5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
+        <v>450</v>
+      </c>
+      <c r="J5" s="33">
+        <f t="shared" ref="J5" si="13" xml:space="preserve"> G5/D5</f>
+        <v>0.9</v>
+      </c>
+      <c r="K5" s="33">
+        <f t="shared" ref="K5" si="14" xml:space="preserve"> H5/D5</f>
+        <v>0.25</v>
+      </c>
+      <c r="L5" s="59">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>100</v>
+      </c>
       <c r="M5" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>200</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="33" t="e">
-        <f t="shared" ref="R5" si="14" xml:space="preserve"> O5/L5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="33" t="e">
-        <f t="shared" ref="S5" si="15" xml:space="preserve"> P5/L5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T5" s="57"/>
+      <c r="N5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>180</v>
+      </c>
+      <c r="P5" s="40">
+        <f t="shared" ref="P5" si="15">L5-Q5</f>
+        <v>-50</v>
+      </c>
+      <c r="Q5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
+        <v>150</v>
+      </c>
+      <c r="R5" s="33">
+        <f t="shared" ref="R5" si="16" xml:space="preserve"> O5/L5</f>
+        <v>1.8</v>
+      </c>
+      <c r="S5" s="33">
+        <f t="shared" ref="S5" si="17" xml:space="preserve"> P5/L5</f>
+        <v>-0.5</v>
+      </c>
+      <c r="T5" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Visio Import/Export")</f>
+        <v>50</v>
+      </c>
       <c r="U5" s="58">
         <f>_ReleaseData!$Q$27</f>
         <v>200</v>
       </c>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="33" t="e">
-        <f t="shared" ref="Z5" si="16" xml:space="preserve"> W5/T5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA5" s="33" t="e">
-        <f t="shared" ref="AA5" si="17">X5/T5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB5" s="57"/>
+      <c r="V5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Visio Import/Export")</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Visio Import/Export")</f>
+        <v>180</v>
+      </c>
+      <c r="X5" s="40">
+        <f t="shared" ref="X5" si="18">T5-Y5</f>
+        <v>-100</v>
+      </c>
+      <c r="Y5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Visio Import/Export")</f>
+        <v>150</v>
+      </c>
+      <c r="Z5" s="33">
+        <f t="shared" ref="Z5" si="19" xml:space="preserve"> W5/T5</f>
+        <v>3.6</v>
+      </c>
+      <c r="AA5" s="33">
+        <f t="shared" ref="AA5" si="20">X5/T5</f>
+        <v>-2</v>
+      </c>
+      <c r="AB5" s="57">
+        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Logging and Audit")</f>
+        <v>50</v>
+      </c>
       <c r="AC5" s="58">
         <f>_ReleaseData!$Q$28</f>
         <v>60</v>
       </c>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="33" t="e">
-        <f t="shared" ref="AH5" si="18" xml:space="preserve"> AE5/AB5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI5" s="33" t="e">
-        <f t="shared" ref="AI5" si="19">AF5/AB5</f>
-        <v>#DIV/0!</v>
+      <c r="AD5" s="40">
+        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Logging and Audit")</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="40">
+        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Logging and Audit")</f>
+        <v>180</v>
+      </c>
+      <c r="AF5" s="40">
+        <f t="shared" ref="AF5" si="21">AB5-AG5</f>
+        <v>-100</v>
+      </c>
+      <c r="AG5" s="40">
+        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic", "ST:Components", "Logging and Audit")</f>
+        <v>150</v>
+      </c>
+      <c r="AH5" s="33">
+        <f t="shared" ref="AH5" si="22" xml:space="preserve"> AE5/AB5</f>
+        <v>3.6</v>
+      </c>
+      <c r="AI5" s="33">
+        <f t="shared" ref="AI5" si="23">AF5/AB5</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.3">
@@ -62926,11 +63062,11 @@
       <c r="H6" s="40"/>
       <c r="I6" s="40"/>
       <c r="J6" s="33" t="e">
-        <f t="shared" ref="J6" si="20" xml:space="preserve"> G6/D6</f>
+        <f t="shared" ref="J6" si="24" xml:space="preserve"> G6/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K6" s="33" t="e">
-        <f t="shared" ref="K6" si="21" xml:space="preserve"> H6/D6</f>
+        <f t="shared" ref="K6" si="25" xml:space="preserve"> H6/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L6" s="59"/>
@@ -62943,11 +63079,11 @@
       <c r="P6" s="40"/>
       <c r="Q6" s="40"/>
       <c r="R6" s="33" t="e">
-        <f t="shared" ref="R6" si="22" xml:space="preserve"> O6/L6</f>
+        <f t="shared" ref="R6" si="26" xml:space="preserve"> O6/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S6" s="33" t="e">
-        <f t="shared" ref="S6" si="23" xml:space="preserve"> P6/L6</f>
+        <f t="shared" ref="S6" si="27" xml:space="preserve"> P6/L6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T6" s="57"/>
@@ -62960,11 +63096,11 @@
       <c r="X6" s="40"/>
       <c r="Y6" s="40"/>
       <c r="Z6" s="33" t="e">
-        <f t="shared" ref="Z6" si="24" xml:space="preserve"> W6/T6</f>
+        <f t="shared" ref="Z6" si="28" xml:space="preserve"> W6/T6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA6" s="33" t="e">
-        <f t="shared" ref="AA6" si="25">X6/T6</f>
+        <f t="shared" ref="AA6" si="29">X6/T6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB6" s="57"/>
@@ -62977,11 +63113,11 @@
       <c r="AF6" s="40"/>
       <c r="AG6" s="40"/>
       <c r="AH6" s="33" t="e">
-        <f t="shared" ref="AH6" si="26" xml:space="preserve"> AE6/AB6</f>
+        <f t="shared" ref="AH6" si="30" xml:space="preserve"> AE6/AB6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI6" s="33" t="e">
-        <f t="shared" ref="AI6" si="27">AF6/AB6</f>
+        <f t="shared" ref="AI6" si="31">AF6/AB6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -63005,11 +63141,11 @@
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
       <c r="J7" s="33" t="e">
-        <f t="shared" ref="J7:J8" si="28" xml:space="preserve"> G7/D7</f>
+        <f t="shared" ref="J7:J8" si="32" xml:space="preserve"> G7/D7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K7" s="33" t="e">
-        <f t="shared" ref="K7:K8" si="29" xml:space="preserve"> H7/D7</f>
+        <f t="shared" ref="K7:K8" si="33" xml:space="preserve"> H7/D7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L7" s="59"/>
@@ -63022,11 +63158,11 @@
       <c r="P7" s="40"/>
       <c r="Q7" s="40"/>
       <c r="R7" s="33" t="e">
-        <f t="shared" ref="R7:R8" si="30" xml:space="preserve"> O7/L7</f>
+        <f t="shared" ref="R7:R8" si="34" xml:space="preserve"> O7/L7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S7" s="33" t="e">
-        <f t="shared" ref="S7:S8" si="31" xml:space="preserve"> P7/L7</f>
+        <f t="shared" ref="S7:S8" si="35" xml:space="preserve"> P7/L7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T7" s="57"/>
@@ -63039,11 +63175,11 @@
       <c r="X7" s="40"/>
       <c r="Y7" s="40"/>
       <c r="Z7" s="33" t="e">
-        <f t="shared" ref="Z7:Z8" si="32" xml:space="preserve"> W7/T7</f>
+        <f t="shared" ref="Z7:Z8" si="36" xml:space="preserve"> W7/T7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA7" s="33" t="e">
-        <f t="shared" ref="AA7:AA8" si="33">X7/T7</f>
+        <f t="shared" ref="AA7:AA8" si="37">X7/T7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB7" s="57"/>
@@ -63056,11 +63192,11 @@
       <c r="AF7" s="40"/>
       <c r="AG7" s="40"/>
       <c r="AH7" s="33" t="e">
-        <f t="shared" ref="AH7:AH8" si="34" xml:space="preserve"> AE7/AB7</f>
+        <f t="shared" ref="AH7:AH8" si="38" xml:space="preserve"> AE7/AB7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI7" s="33" t="e">
-        <f t="shared" ref="AI7:AI8" si="35">AF7/AB7</f>
+        <f t="shared" ref="AI7:AI8" si="39">AF7/AB7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL7" s="16" t="s">
@@ -63090,11 +63226,11 @@
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
       <c r="J8" s="33" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K8" s="33" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L8" s="59"/>
@@ -63107,11 +63243,11 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="40"/>
       <c r="R8" s="33" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S8" s="33" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T8" s="57"/>
@@ -63124,11 +63260,11 @@
       <c r="X8" s="40"/>
       <c r="Y8" s="40"/>
       <c r="Z8" s="33" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA8" s="33" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB8" s="57"/>
@@ -63141,11 +63277,11 @@
       <c r="AF8" s="40"/>
       <c r="AG8" s="40"/>
       <c r="AH8" s="33" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AI8" s="33" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AL8" s="16" t="s">
@@ -63175,11 +63311,11 @@
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
       <c r="J9" s="33" t="e">
-        <f t="shared" ref="J9" si="36" xml:space="preserve"> G9/D9</f>
+        <f t="shared" ref="J9" si="40" xml:space="preserve"> G9/D9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K9" s="33" t="e">
-        <f t="shared" ref="K9" si="37" xml:space="preserve"> H9/D9</f>
+        <f t="shared" ref="K9" si="41" xml:space="preserve"> H9/D9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L9" s="59"/>
@@ -63192,11 +63328,11 @@
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
       <c r="R9" s="33" t="e">
-        <f t="shared" ref="R9" si="38" xml:space="preserve"> O9/L9</f>
+        <f t="shared" ref="R9" si="42" xml:space="preserve"> O9/L9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S9" s="33" t="e">
-        <f t="shared" ref="S9" si="39" xml:space="preserve"> P9/L9</f>
+        <f t="shared" ref="S9" si="43" xml:space="preserve"> P9/L9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T9" s="57"/>
@@ -63209,11 +63345,11 @@
       <c r="X9" s="40"/>
       <c r="Y9" s="40"/>
       <c r="Z9" s="33" t="e">
-        <f t="shared" ref="Z9" si="40" xml:space="preserve"> W9/T9</f>
+        <f t="shared" ref="Z9" si="44" xml:space="preserve"> W9/T9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA9" s="33" t="e">
-        <f t="shared" ref="AA9" si="41">X9/T9</f>
+        <f t="shared" ref="AA9" si="45">X9/T9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB9" s="57"/>
@@ -63226,11 +63362,11 @@
       <c r="AF9" s="40"/>
       <c r="AG9" s="40"/>
       <c r="AH9" s="33" t="e">
-        <f t="shared" ref="AH9" si="42" xml:space="preserve"> AE9/AB9</f>
+        <f t="shared" ref="AH9" si="46" xml:space="preserve"> AE9/AB9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI9" s="33" t="e">
-        <f t="shared" ref="AI9" si="43">AF9/AB9</f>
+        <f t="shared" ref="AI9" si="47">AF9/AB9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -63254,11 +63390,11 @@
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
       <c r="J10" s="33" t="e">
-        <f t="shared" ref="J10" si="44" xml:space="preserve"> G10/D10</f>
+        <f t="shared" ref="J10" si="48" xml:space="preserve"> G10/D10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K10" s="33" t="e">
-        <f t="shared" ref="K10" si="45" xml:space="preserve"> H10/D10</f>
+        <f t="shared" ref="K10" si="49" xml:space="preserve"> H10/D10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L10" s="59"/>
@@ -63271,11 +63407,11 @@
       <c r="P10" s="40"/>
       <c r="Q10" s="40"/>
       <c r="R10" s="33" t="e">
-        <f t="shared" ref="R10" si="46" xml:space="preserve"> O10/L10</f>
+        <f t="shared" ref="R10" si="50" xml:space="preserve"> O10/L10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S10" s="33" t="e">
-        <f t="shared" ref="S10" si="47" xml:space="preserve"> P10/L10</f>
+        <f t="shared" ref="S10" si="51" xml:space="preserve"> P10/L10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T10" s="57"/>
@@ -63288,11 +63424,11 @@
       <c r="X10" s="40"/>
       <c r="Y10" s="40"/>
       <c r="Z10" s="33" t="e">
-        <f t="shared" ref="Z10" si="48" xml:space="preserve"> W10/T10</f>
+        <f t="shared" ref="Z10" si="52" xml:space="preserve"> W10/T10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA10" s="33" t="e">
-        <f t="shared" ref="AA10" si="49">X10/T10</f>
+        <f t="shared" ref="AA10" si="53">X10/T10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB10" s="57"/>
@@ -63305,11 +63441,11 @@
       <c r="AF10" s="40"/>
       <c r="AG10" s="40"/>
       <c r="AH10" s="33" t="e">
-        <f t="shared" ref="AH10" si="50" xml:space="preserve"> AE10/AB10</f>
+        <f t="shared" ref="AH10" si="54" xml:space="preserve"> AE10/AB10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI10" s="33" t="e">
-        <f t="shared" ref="AI10" si="51">AF10/AB10</f>
+        <f t="shared" ref="AI10" si="55">AF10/AB10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM10" s="16" t="s">
@@ -63788,20 +63924,24 @@
         <v>263</v>
       </c>
       <c r="C16" s="20">
-        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="D16" s="20">
-        <f>GETPIVOTDATA("Story Points",$G$5)</f>
-        <v>35</v>
+        <v>241.5</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>264</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="20">
+        <f>GETPIVOTDATA("Epic Not Decomposed Estimate",$B$3)</f>
+        <v>60</v>
+      </c>
+      <c r="D17" s="20">
+        <f>GETPIVOTDATA("Story Points",$G$5)</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">

--- a/blueprint-jira-better-excel/Wavelength-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Wavelength-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88364F3-D71B-460E-BD59-EB5152920A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4261542C-476A-4AD8-8BEA-F0ABC4D4A32D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="46" r:id="rId19"/>
+    <pivotCache cacheId="30" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -3816,25 +3816,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>173.13432835820896</c:v>
+                  <c:v>225.07462686567166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143.28358208955225</c:v>
+                  <c:v>186.26865671641792</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113.43283582089553</c:v>
+                  <c:v>147.46268656716421</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.582089552238799</c:v>
+                  <c:v>108.65671641791045</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.716417910447767</c:v>
+                  <c:v>73.731343283582106</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.865671641791057</c:v>
+                  <c:v>34.925373134328375</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4761,28 +4761,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>200</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20813,25 +20813,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>470</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>406.8656716417911</c:v>
+                  <c:v>458.80597014925377</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>336.71641791044777</c:v>
+                  <c:v>379.70149253731347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>266.56716417910451</c:v>
+                  <c:v>300.59701492537317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>196.41791044776119</c:v>
+                  <c:v>221.49253731343282</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>133.28358208955225</c:v>
+                  <c:v>150.29850746268659</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63.134328358208982</c:v>
+                  <c:v>71.194029850746304</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -21765,28 +21765,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>470</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>470</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>470</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>470</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>470</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>470</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>470</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>470</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -43634,7 +43634,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43887.324144675928" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="109" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43887.4569849537" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="109" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -49441,8 +49441,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -49494,7 +49494,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49532,258 +49532,31 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="4">
+  <pageFields count="3">
     <pageField fld="32" item="9" hier="-1"/>
     <pageField fld="1" hier="-1"/>
     <pageField fld="10" item="14" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
-  <chartFormats count="21">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -49797,8 +49570,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -49822,12 +49595,35 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49865,44 +49661,19 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
   <colItems count="1">
     <i/>
@@ -49910,41 +49681,159 @@
   <pageFields count="3">
     <pageField fld="32" item="9" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
+    <pageField fld="10" item="18" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
   </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -49953,110 +49842,11 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
+    <chartFormat chart="2" format="26">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -50074,171 +49864,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="11">
-        <item h="1" x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item h="1" x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" m="1" x="7"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50410,7 +50037,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -50534,7 +50161,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50640,7 +50267,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -50884,7 +50511,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51161,7 +50788,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -51486,7 +51113,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -51912,7 +51539,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="B29:H38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -52309,7 +51936,1391 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="44"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="44" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="11">
+        <item h="1" x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item h="1" x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="17" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -52718,724 +53729,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="44"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="44" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="44" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="17" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53886,301 +54181,6 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -60830,16 +60830,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5546875" customWidth="1"/>
     <col min="13" max="13" width="14.109375" customWidth="1"/>
@@ -61017,14 +61017,14 @@
       </c>
       <c r="Q3" s="40">
         <f>$Q$25*(100%-K3)</f>
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="R3" s="42">
         <v>465</v>
       </c>
       <c r="S3" s="40">
         <f>$Q$26*(100%-K3)</f>
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="T3" s="42">
         <v>136</v>
@@ -61094,14 +61094,14 @@
       </c>
       <c r="Q4" s="40">
         <f>$Q$25*(100%-K4)</f>
-        <v>406.8656716417911</v>
+        <v>458.80597014925377</v>
       </c>
       <c r="R4" s="42">
         <v>442.3</v>
       </c>
       <c r="S4" s="42">
         <f>$Q$26*(100%-K4)</f>
-        <v>173.13432835820896</v>
+        <v>225.07462686567166</v>
       </c>
       <c r="T4" s="42">
         <v>138.30000000000001</v>
@@ -61175,7 +61175,7 @@
       </c>
       <c r="Q5" s="40">
         <f t="shared" ref="Q5:Q9" si="1">$Q$25*(100%-K5)</f>
-        <v>336.71641791044777</v>
+        <v>379.70149253731347</v>
       </c>
       <c r="R5" s="42">
         <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
@@ -61183,7 +61183,7 @@
       </c>
       <c r="S5" s="42">
         <f t="shared" ref="S5:S9" si="2">$Q$26*(100%-K5)</f>
-        <v>143.28358208955225</v>
+        <v>186.26865671641792</v>
       </c>
       <c r="T5" s="42">
         <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")</f>
@@ -61263,12 +61263,12 @@
       <c r="P6" s="76"/>
       <c r="Q6" s="40">
         <f t="shared" ref="Q6" si="5">$Q$25*(100%-K6)</f>
-        <v>266.56716417910451</v>
+        <v>300.59701492537317</v>
       </c>
       <c r="R6" s="42"/>
       <c r="S6" s="42">
         <f t="shared" ref="S6" si="6">$Q$26*(100%-K6)</f>
-        <v>113.43283582089553</v>
+        <v>147.46268656716421</v>
       </c>
       <c r="T6" s="42"/>
       <c r="U6" s="40">
@@ -61329,12 +61329,12 @@
       <c r="P7" s="76"/>
       <c r="Q7" s="40">
         <f t="shared" si="1"/>
-        <v>196.41791044776119</v>
+        <v>221.49253731343282</v>
       </c>
       <c r="R7" s="42"/>
       <c r="S7" s="42">
         <f t="shared" si="2"/>
-        <v>83.582089552238799</v>
+        <v>108.65671641791045</v>
       </c>
       <c r="T7" s="42"/>
       <c r="U7" s="40">
@@ -61390,12 +61390,12 @@
       <c r="P8" s="76"/>
       <c r="Q8" s="40">
         <f t="shared" si="1"/>
-        <v>133.28358208955225</v>
+        <v>150.29850746268659</v>
       </c>
       <c r="R8" s="42"/>
       <c r="S8" s="42">
         <f t="shared" si="2"/>
-        <v>56.716417910447767</v>
+        <v>73.731343283582106</v>
       </c>
       <c r="T8" s="42"/>
       <c r="U8" s="40">
@@ -61455,12 +61455,12 @@
       <c r="P9" s="76"/>
       <c r="Q9" s="42">
         <f t="shared" si="1"/>
-        <v>63.134328358208982</v>
+        <v>71.194029850746304</v>
       </c>
       <c r="R9" s="42"/>
       <c r="S9" s="42">
         <f t="shared" si="2"/>
-        <v>26.865671641791057</v>
+        <v>34.925373134328375</v>
       </c>
       <c r="T9" s="42"/>
       <c r="U9" s="42">
@@ -61873,7 +61873,7 @@
         <v>135</v>
       </c>
       <c r="Q25">
-        <v>470</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
@@ -61906,7 +61906,7 @@
         <v>255</v>
       </c>
       <c r="Q26">
-        <v>200</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
@@ -62672,7 +62672,7 @@
       </c>
       <c r="E3" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="F3" s="40">
         <v>443.8</v>
@@ -62700,7 +62700,7 @@
       </c>
       <c r="M3" s="58">
         <f>_ReleaseData!$Q$26</f>
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N3" s="40">
         <v>124.8</v>
@@ -62795,7 +62795,7 @@
       </c>
       <c r="E4" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="F4" s="40">
         <v>525</v>
@@ -62823,7 +62823,7 @@
       </c>
       <c r="M4" s="58">
         <f>_ReleaseData!$Q$26</f>
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N4" s="40">
         <v>184</v>
@@ -62919,7 +62919,7 @@
       </c>
       <c r="E5" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="F5" s="40">
         <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
@@ -62951,7 +62951,7 @@
       </c>
       <c r="M5" s="58">
         <f>_ReleaseData!$Q$26</f>
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N5" s="40">
         <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
@@ -63055,7 +63055,7 @@
       <c r="D6" s="57"/>
       <c r="E6" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
@@ -63072,7 +63072,7 @@
       <c r="L6" s="59"/>
       <c r="M6" s="58">
         <f>_ReleaseData!$Q$26</f>
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N6" s="40"/>
       <c r="O6" s="40"/>
@@ -63134,7 +63134,7 @@
       <c r="D7" s="57"/>
       <c r="E7" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
@@ -63151,7 +63151,7 @@
       <c r="L7" s="59"/>
       <c r="M7" s="58">
         <f>_ReleaseData!$Q$26</f>
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N7" s="40"/>
       <c r="O7" s="40"/>
@@ -63219,7 +63219,7 @@
       <c r="D8" s="57"/>
       <c r="E8" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
@@ -63236,7 +63236,7 @@
       <c r="L8" s="59"/>
       <c r="M8" s="58">
         <f>_ReleaseData!$Q$26</f>
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
@@ -63304,7 +63304,7 @@
       <c r="D9" s="57"/>
       <c r="E9" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
@@ -63321,7 +63321,7 @@
       <c r="L9" s="59"/>
       <c r="M9" s="58">
         <f>_ReleaseData!$Q$26</f>
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
@@ -63383,7 +63383,7 @@
       <c r="D10" s="57"/>
       <c r="E10" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
@@ -63400,7 +63400,7 @@
       <c r="L10" s="59"/>
       <c r="M10" s="58">
         <f>_ReleaseData!$Q$26</f>
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N10" s="40"/>
       <c r="O10" s="40"/>

--- a/blueprint-jira-better-excel/Wavelength-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Wavelength-Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4261542C-476A-4AD8-8BEA-F0ABC4D4A32D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F895748-B0AE-4CC8-9D51-AA6C828DA165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20813,25 +20813,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>530</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>458.80597014925377</c:v>
+                  <c:v>545.37313432835822</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>379.70149253731347</c:v>
+                  <c:v>451.34328358208961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300.59701492537317</c:v>
+                  <c:v>357.31343283582095</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>221.49253731343282</c:v>
+                  <c:v>263.28358208955223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150.29850746268659</c:v>
+                  <c:v>178.65671641791047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71.194029850746304</c:v>
+                  <c:v>84.626865671641823</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -21765,28 +21765,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>530</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>530</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>530</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>530</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>530</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>530</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>530</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>530</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -43634,7 +43634,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43887.4569849537" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="109" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43887.496244212962" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="109" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -49441,8 +49441,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+  <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -49494,7 +49494,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49532,31 +49532,366 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="3">
+  <pageFields count="4">
     <pageField fld="32" item="9" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
+    <pageField fld="10" item="18" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
   </dataFields>
+  <chartFormats count="33">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -49570,8 +49905,286 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -49623,7 +50236,7 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49661,179 +50274,87 @@
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="5">
         <item m="1" x="3"/>
-        <item x="0"/>
         <item x="2"/>
         <item x="1"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="35"/>
+    <field x="-2"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="5">
     <i>
+      <x/>
+    </i>
+    <i i="1">
       <x v="1"/>
     </i>
-    <i>
+    <i i="2">
       <x v="2"/>
     </i>
-    <i>
+    <i i="3">
       <x v="3"/>
     </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
+    <i i="4">
+      <x v="4"/>
     </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
+  <pageFields count="4">
     <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="17" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
   </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -49842,11 +50363,218 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="26">
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -51936,398 +52664,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
@@ -52671,7 +53007,136 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
@@ -52834,6 +53299,172 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
@@ -52964,6 +53595,249 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
@@ -53298,880 +54172,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="9" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="17" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
-  <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="18" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="33">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="18" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="18" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="18" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="18" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="18" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="18" format="12">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -60826,12 +60826,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
@@ -61017,7 +61019,7 @@
       </c>
       <c r="Q3" s="40">
         <f>$Q$25*(100%-K3)</f>
-        <v>530</v>
+        <v>630</v>
       </c>
       <c r="R3" s="42">
         <v>465</v>
@@ -61094,7 +61096,7 @@
       </c>
       <c r="Q4" s="40">
         <f>$Q$25*(100%-K4)</f>
-        <v>458.80597014925377</v>
+        <v>545.37313432835822</v>
       </c>
       <c r="R4" s="42">
         <v>442.3</v>
@@ -61175,7 +61177,7 @@
       </c>
       <c r="Q5" s="40">
         <f t="shared" ref="Q5:Q9" si="1">$Q$25*(100%-K5)</f>
-        <v>379.70149253731347</v>
+        <v>451.34328358208961</v>
       </c>
       <c r="R5" s="42">
         <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
@@ -61263,7 +61265,7 @@
       <c r="P6" s="76"/>
       <c r="Q6" s="40">
         <f t="shared" ref="Q6" si="5">$Q$25*(100%-K6)</f>
-        <v>300.59701492537317</v>
+        <v>357.31343283582095</v>
       </c>
       <c r="R6" s="42"/>
       <c r="S6" s="42">
@@ -61329,7 +61331,7 @@
       <c r="P7" s="76"/>
       <c r="Q7" s="40">
         <f t="shared" si="1"/>
-        <v>221.49253731343282</v>
+        <v>263.28358208955223</v>
       </c>
       <c r="R7" s="42"/>
       <c r="S7" s="42">
@@ -61390,7 +61392,7 @@
       <c r="P8" s="76"/>
       <c r="Q8" s="40">
         <f t="shared" si="1"/>
-        <v>150.29850746268659</v>
+        <v>178.65671641791047</v>
       </c>
       <c r="R8" s="42"/>
       <c r="S8" s="42">
@@ -61455,7 +61457,7 @@
       <c r="P9" s="76"/>
       <c r="Q9" s="42">
         <f t="shared" si="1"/>
-        <v>71.194029850746304</v>
+        <v>84.626865671641823</v>
       </c>
       <c r="R9" s="42"/>
       <c r="S9" s="42">
@@ -61873,7 +61875,7 @@
         <v>135</v>
       </c>
       <c r="Q25">
-        <v>530</v>
+        <v>630</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
@@ -62672,7 +62674,7 @@
       </c>
       <c r="E3" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>530</v>
+        <v>630</v>
       </c>
       <c r="F3" s="40">
         <v>443.8</v>
@@ -62795,7 +62797,7 @@
       </c>
       <c r="E4" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>530</v>
+        <v>630</v>
       </c>
       <c r="F4" s="40">
         <v>525</v>
@@ -62919,7 +62921,7 @@
       </c>
       <c r="E5" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>530</v>
+        <v>630</v>
       </c>
       <c r="F5" s="40">
         <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
@@ -63055,7 +63057,7 @@
       <c r="D6" s="57"/>
       <c r="E6" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>530</v>
+        <v>630</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
@@ -63134,7 +63136,7 @@
       <c r="D7" s="57"/>
       <c r="E7" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>530</v>
+        <v>630</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
@@ -63219,7 +63221,7 @@
       <c r="D8" s="57"/>
       <c r="E8" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>530</v>
+        <v>630</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
@@ -63304,7 +63306,7 @@
       <c r="D9" s="57"/>
       <c r="E9" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>530</v>
+        <v>630</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
@@ -63383,7 +63385,7 @@
       <c r="D10" s="57"/>
       <c r="E10" s="58">
         <f>_ReleaseData!$Q$25</f>
-        <v>530</v>
+        <v>630</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>

--- a/blueprint-jira-better-excel/Wavelength-Dashboard.xlsx
+++ b/blueprint-jira-better-excel/Wavelength-Dashboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\etc\blueprint-jira-better-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F895748-B0AE-4CC8-9D51-AA6C828DA165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7C08D2-3565-4BCA-9281-1A4149C63379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId19"/>
+    <pivotCache cacheId="46" r:id="rId19"/>
   </pivotCaches>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -1938,10 +1938,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.14925373134328357</c:v>
+                  <c:v>0.29850746268656714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85074626865671643</c:v>
+                  <c:v>0.70149253731343286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2457,6 +2457,9 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -3917,6 +3920,9 @@
                   <c:v>138.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>139.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4265,6 +4271,9 @@
                   <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>275.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -4341,6 +4350,9 @@
                   <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>275.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4419,6 +4431,9 @@
                   <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>275.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -4495,6 +4510,9 @@
                   <c:v>93.699999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>136.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-50</c:v>
                 </c:pt>
               </c:numCache>
@@ -5133,10 +5151,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.14925373134328357</c:v>
+                  <c:v>0.29850746268656714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85074626865671643</c:v>
+                  <c:v>0.70149253731343286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5652,6 +5670,9 @@
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -7121,6 +7142,9 @@
                   <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -7679,6 +7703,9 @@
                   <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -7755,6 +7782,9 @@
                   <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7833,6 +7863,9 @@
                   <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -7909,6 +7942,9 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-100</c:v>
                 </c:pt>
               </c:numCache>
@@ -8506,10 +8542,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.14925373134328357</c:v>
+                  <c:v>0.29850746268656714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85074626865671643</c:v>
+                  <c:v>0.70149253731343286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9025,6 +9061,9 @@
                   <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -9475,6 +9514,9 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -9823,6 +9865,9 @@
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
@@ -9899,6 +9944,9 @@
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9977,6 +10025,9 @@
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
@@ -10053,6 +10104,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-100</c:v>
                 </c:pt>
               </c:numCache>
@@ -11477,6 +11531,9 @@
                   <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -11609,6 +11666,9 @@
                   <c:v>241.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>282.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -15356,6 +15416,9 @@
                   <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -15590,7 +15653,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Sprint Wavelength2 Progress</c:v>
+              <c:v>Sprint Wavelength3 Progress</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -16079,16 +16142,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20914,6 +20980,9 @@
                   <c:v>442.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>408.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
@@ -21262,6 +21331,9 @@
                   <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>630.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
@@ -21338,6 +21410,9 @@
                   <c:v>525</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>630.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -21416,6 +21491,9 @@
                   <c:v>461.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>606.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>540</c:v>
                 </c:pt>
               </c:numCache>
@@ -21492,6 +21570,9 @@
                   <c:v>130.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>221.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -22981,10 +23062,10 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0%">
-                  <c:v>0.14925373134328357</c:v>
+                  <c:v>0.29850746268656714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85074626865671643</c:v>
+                  <c:v>0.70149253731343286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41793,7 +41874,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>15%</a:t>
+            <a:t>30%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -42171,7 +42252,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>11</a:t>
+            <a:t>26</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -42434,7 +42515,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>15%</a:t>
+            <a:t>30%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43110,7 +43191,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>15%</a:t>
+            <a:t>30%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43617,7 +43698,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>15%</a:t>
+            <a:t>30%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1">
             <a:solidFill>
@@ -43634,7 +43715,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43887.496244212962" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="109" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Alex Folomechine" refreshedDate="43901.31055613426" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="109" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="issues"/>
   </cacheSource>
@@ -45499,7 +45580,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45548,7 +45629,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45597,7 +45678,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45646,7 +45727,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45695,7 +45776,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45744,7 +45825,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -45793,7 +45874,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -49441,7 +49522,3224 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="35"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" item="2" hier="-1"/>
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="11">
+        <item h="1" x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item h="1" x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
+    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="37"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="46" item="2" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="10" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="50">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="51">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="52">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item x="41"/>
+        <item h="1" x="39"/>
+        <item h="1" x="43"/>
+        <item h="1" x="45"/>
+        <item h="1" x="36"/>
+        <item h="1" x="42"/>
+        <item h="1" x="38"/>
+        <item h="1" x="37"/>
+        <item h="1" x="40"/>
+        <item h="1" x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="74">
+        <item h="1" m="1" x="70"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="63"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="66"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="69"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="67"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="71"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="65"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="68"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="72"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item x="6"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="67">
+        <item x="0"/>
+        <item m="1" x="18"/>
+        <item m="1" x="9"/>
+        <item m="1" x="61"/>
+        <item m="1" x="46"/>
+        <item m="1" x="28"/>
+        <item m="1" x="19"/>
+        <item m="1" x="11"/>
+        <item m="1" x="62"/>
+        <item m="1" x="27"/>
+        <item m="1" x="65"/>
+        <item m="1" x="58"/>
+        <item m="1" x="40"/>
+        <item m="1" x="25"/>
+        <item m="1" x="16"/>
+        <item m="1" x="32"/>
+        <item m="1" x="36"/>
+        <item m="1" x="42"/>
+        <item m="1" x="48"/>
+        <item m="1" x="52"/>
+        <item m="1" x="56"/>
+        <item m="1" x="60"/>
+        <item m="1" x="63"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="17"/>
+        <item m="1" x="20"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="30"/>
+        <item m="1" x="34"/>
+        <item m="1" x="37"/>
+        <item m="1" x="44"/>
+        <item m="1" x="50"/>
+        <item m="1" x="53"/>
+        <item m="1" x="38"/>
+        <item m="1" x="43"/>
+        <item m="1" x="47"/>
+        <item m="1" x="51"/>
+        <item m="1" x="54"/>
+        <item m="1" x="57"/>
+        <item m="1" x="59"/>
+        <item m="1" x="12"/>
+        <item m="1" x="64"/>
+        <item m="1" x="55"/>
+        <item m="1" x="41"/>
+        <item m="1" x="29"/>
+        <item m="1" x="21"/>
+        <item m="1" x="14"/>
+        <item m="1" x="26"/>
+        <item m="1" x="31"/>
+        <item m="1" x="33"/>
+        <item m="1" x="35"/>
+        <item m="1" x="39"/>
+        <item m="1" x="45"/>
+        <item m="1" x="49"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="34"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="30" item="61" hier="-1"/>
+    <pageField fld="45" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="34" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="60">
+        <item h="1" x="0"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="22"/>
+        <item h="1" x="15"/>
+        <item h="1" x="18"/>
+        <item h="1" x="16"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="12"/>
+        <item h="1" x="20"/>
+        <item h="1" x="11"/>
+        <item h="1" x="14"/>
+        <item h="1" x="21"/>
+        <item h="1" x="35"/>
+        <item h="1" x="28"/>
+        <item h="1" x="31"/>
+        <item h="1" x="29"/>
+        <item h="1" x="26"/>
+        <item h="1" x="30"/>
+        <item h="1" x="23"/>
+        <item h="1" x="32"/>
+        <item h="1" x="25"/>
+        <item h="1" x="33"/>
+        <item h="1" x="24"/>
+        <item h="1" x="27"/>
+        <item h="1" x="34"/>
+        <item h="1" x="1"/>
+        <item h="1" x="46"/>
+        <item h="1" x="47"/>
+        <item h="1" x="48"/>
+        <item h="1" x="49"/>
+        <item h="1" x="50"/>
+        <item h="1" x="51"/>
+        <item h="1" x="52"/>
+        <item h="1" x="53"/>
+        <item h="1" x="54"/>
+        <item h="1" x="55"/>
+        <item h="1" x="56"/>
+        <item h="1" x="57"/>
+        <item h="1" x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="33"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="18">
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B29:H38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="60">
+        <item x="0"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="42"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="44"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="19"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="74">
+        <item h="1" m="1" x="70"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="63"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="66"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="69"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="67"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="71"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="65"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="68"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="72"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" subtotalTop="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item h="1" x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item h="1" m="1" x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="33"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" item="1" hier="-1"/>
+    <pageField fld="37" hier="-1"/>
+    <pageField fld="4" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="31" count="1" selected="0">
+            <x v="66"/>
+          </reference>
+          <reference field="33" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="4">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="17" hier="-1"/>
+    <pageField fld="45" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
+    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
+    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
+    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
+    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
+  </dataFields>
+  <chartFormats count="27">
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="17" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFE64A30-B41F-4AE4-94E0-976FA0DF52E6}" name="PivotTable6" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="J29:K34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -49904,2767 +53202,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="PivotTable2" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000007000000}" name="PivotTable9" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="G29:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="17" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Done" fld="47" baseField="0" baseItem="32"/>
-    <dataField name="In Validation" fld="41" baseField="0" baseItem="32"/>
-    <dataField name="In Dev" fld="40" baseField="0" baseItem="32"/>
-    <dataField name="Ready" fld="39" baseField="0" baseItem="32"/>
-    <dataField name="Not Decomposed" fld="48" baseField="0" baseItem="32"/>
-  </dataFields>
-  <chartFormats count="27">
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="24">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AL10:AP17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisCol" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Stories Estimate" fld="14" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Decomposed" fld="22" baseField="10" baseItem="2"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D8B9FB5-5471-4500-848C-1623DA7CC3A0}" name="PivotTable4" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G5:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="37"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="46" item="2" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Not Decomposed Estimate" fld="48" baseField="1" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A6:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item h="1" x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item h="1" x="8"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="34" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="10" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="50">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="51">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="52">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="B5:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item x="41"/>
-        <item h="1" x="39"/>
-        <item h="1" x="43"/>
-        <item h="1" x="45"/>
-        <item h="1" x="36"/>
-        <item h="1" x="42"/>
-        <item h="1" x="38"/>
-        <item h="1" x="37"/>
-        <item h="1" x="40"/>
-        <item h="1" x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="74">
-        <item h="1" m="1" x="70"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="63"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="66"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="69"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="67"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="71"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="65"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="68"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="72"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="30" baseItem="12"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable2" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D5:E13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item x="6"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item h="1" x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="67">
-        <item x="0"/>
-        <item m="1" x="18"/>
-        <item m="1" x="9"/>
-        <item m="1" x="61"/>
-        <item m="1" x="46"/>
-        <item m="1" x="28"/>
-        <item m="1" x="19"/>
-        <item m="1" x="11"/>
-        <item m="1" x="62"/>
-        <item m="1" x="27"/>
-        <item m="1" x="65"/>
-        <item m="1" x="58"/>
-        <item m="1" x="40"/>
-        <item m="1" x="25"/>
-        <item m="1" x="16"/>
-        <item m="1" x="32"/>
-        <item m="1" x="36"/>
-        <item m="1" x="42"/>
-        <item m="1" x="48"/>
-        <item m="1" x="52"/>
-        <item m="1" x="56"/>
-        <item m="1" x="60"/>
-        <item m="1" x="63"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="17"/>
-        <item m="1" x="20"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="30"/>
-        <item m="1" x="34"/>
-        <item m="1" x="37"/>
-        <item m="1" x="44"/>
-        <item m="1" x="50"/>
-        <item m="1" x="53"/>
-        <item m="1" x="38"/>
-        <item m="1" x="43"/>
-        <item m="1" x="47"/>
-        <item m="1" x="51"/>
-        <item m="1" x="54"/>
-        <item m="1" x="57"/>
-        <item m="1" x="59"/>
-        <item m="1" x="12"/>
-        <item m="1" x="64"/>
-        <item m="1" x="55"/>
-        <item m="1" x="41"/>
-        <item m="1" x="29"/>
-        <item m="1" x="21"/>
-        <item m="1" x="14"/>
-        <item m="1" x="26"/>
-        <item m="1" x="31"/>
-        <item m="1" x="33"/>
-        <item m="1" x="35"/>
-        <item m="1" x="39"/>
-        <item m="1" x="45"/>
-        <item m="1" x="49"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="34"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="30" item="60" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Story Points" fld="13" baseField="33" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="34" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="60">
-        <item h="1" x="0"/>
-        <item h="1" x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item h="1" x="8"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="22"/>
-        <item h="1" x="15"/>
-        <item h="1" x="18"/>
-        <item h="1" x="16"/>
-        <item h="1" x="13"/>
-        <item h="1" x="17"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" x="11"/>
-        <item h="1" x="14"/>
-        <item h="1" x="21"/>
-        <item h="1" x="35"/>
-        <item h="1" x="28"/>
-        <item h="1" x="31"/>
-        <item h="1" x="29"/>
-        <item h="1" x="26"/>
-        <item h="1" x="30"/>
-        <item h="1" x="23"/>
-        <item h="1" x="32"/>
-        <item h="1" x="25"/>
-        <item h="1" x="33"/>
-        <item h="1" x="24"/>
-        <item h="1" x="27"/>
-        <item h="1" x="34"/>
-        <item h="1" x="1"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="33"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="2" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="23">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="25">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="27">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="28">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="29">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000002000000}" name="PivotTable3" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B29:H38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="60">
-        <item x="0"/>
-        <item x="41"/>
-        <item x="39"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="36"/>
-        <item x="42"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="18"/>
-        <item x="16"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="12"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="21"/>
-        <item x="35"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="29"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="23"/>
-        <item x="32"/>
-        <item x="25"/>
-        <item x="33"/>
-        <item x="24"/>
-        <item x="27"/>
-        <item x="34"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="74">
-        <item h="1" m="1" x="70"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="63"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="66"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="69"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="67"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="71"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="65"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="68"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="72"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" subtotalTop="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item h="1" x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item h="1" m="1" x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="31"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="33"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="4">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" item="1" hier="-1"/>
-    <pageField fld="37" hier="-1"/>
-    <pageField fld="4" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Key" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="31" count="1" selected="0">
-            <x v="66"/>
-          </reference>
-          <reference field="33" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31FCE1EF-625E-43F6-9928-8FD8FD0AC1EA}" name="PivotTable11" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="E51:F60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField showAll="0"/>
@@ -53007,8 +53546,137 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="49">
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item x="1"/>
+        <item m="1" x="13"/>
+        <item m="1" x="15"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="5"/>
+        <item m="1" x="16"/>
+        <item m="1" x="8"/>
+        <item m="1" x="18"/>
+        <item x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="32" item="9" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="10" item="14" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5FEE7328-E767-497A-8049-35A88773E794}" name="PivotTable7" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J41:J42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53136,595 +53804,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AB5:AD10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="11">
-        <item h="1" x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item h="1" x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" m="1" x="7"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="45" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="10" baseItem="0"/>
-    <dataField name="Sum of Epic Remaining Estimate" fld="16" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable10" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A54:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="35"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="1" item="2" hier="-1"/>
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="45" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="35" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="26">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000006000000}" name="PivotTable8" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G41:G42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="17" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000005000000}" name="PivotTable5" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D41:D42" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="49">
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item m="1" x="11"/>
-        <item m="1" x="7"/>
-        <item x="1"/>
-        <item m="1" x="13"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
-        <item m="1" x="5"/>
-        <item m="1" x="16"/>
-        <item m="1" x="8"/>
-        <item m="1" x="18"/>
-        <item x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisPage" subtotalTop="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item x="1"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField subtotalTop="0" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="32" item="9" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="10" item="14" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Epic Total Estimate" fld="15" baseField="0" baseItem="514"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000003000000}" name="PivotTable3" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A40:A41" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -53838,7 +53919,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="30" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000004000000}" name="PivotTable4" cacheId="46" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="D29:E34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="4" colPageCount="1"/>
   <pivotFields count="49">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -56773,6 +56854,9 @@
       <c r="K8" t="s">
         <v>264</v>
       </c>
+      <c r="L8">
+        <v>91.25</v>
+      </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
@@ -56834,7 +56918,7 @@
       </c>
       <c r="L14">
         <f>SUBTOTAL(109,Table1[R&amp;D])</f>
-        <v>77.7</v>
+        <v>168.95</v>
       </c>
       <c r="M14">
         <f>SUBTOTAL(109,Table1[Total])</f>
@@ -56884,7 +56968,7 @@
       </c>
       <c r="B1" t="str">
         <f>$E$2</f>
-        <v>Wavelength2</v>
+        <v>Wavelength3</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>9</v>
@@ -56898,7 +56982,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -56938,7 +57022,7 @@
         <v>148</v>
       </c>
       <c r="E8" s="20">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -56946,7 +57030,7 @@
         <v>175</v>
       </c>
       <c r="E9" s="20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -56969,14 +57053,16 @@
       <c r="D12" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="20">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D13" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="20">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -56985,7 +57071,7 @@
       </c>
       <c r="E15">
         <f>GETPIVOTDATA("Story Points", $D$5)</f>
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -56994,7 +57080,7 @@
       </c>
       <c r="E16" t="str">
         <f>"Sprint " &amp; SUBSTITUTE($B$1,"Venus", "") &amp; " Progress"</f>
-        <v>Sprint Wavelength2 Progress</v>
+        <v>Sprint Wavelength3 Progress</v>
       </c>
     </row>
   </sheetData>
@@ -58757,7 +58843,7 @@
       </c>
       <c r="AE30" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Wavelength2</v>
+        <v>Wavelength3</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>147</v>
@@ -58781,7 +58867,7 @@
       </c>
       <c r="AE31" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Wavelength2</v>
+        <v>Wavelength3</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>175</v>
@@ -58805,7 +58891,7 @@
       </c>
       <c r="AE32" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Wavelength2</v>
+        <v>Wavelength3</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>148</v>
@@ -58829,7 +58915,7 @@
       </c>
       <c r="AE33" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Wavelength2</v>
+        <v>Wavelength3</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>149</v>
@@ -58853,7 +58939,7 @@
       </c>
       <c r="AE34" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Wavelength2</v>
+        <v>Wavelength3</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>151</v>
@@ -58877,7 +58963,7 @@
       </c>
       <c r="AE35" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Wavelength2</v>
+        <v>Wavelength3</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>150</v>
@@ -58898,7 +58984,7 @@
       </c>
       <c r="AE36" s="5" t="str">
         <f>_ActiveSprintData!$B$1</f>
-        <v>Wavelength2</v>
+        <v>Wavelength3</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>152</v>
@@ -60826,9 +60912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -60838,7 +60922,7 @@
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="24.44140625" bestFit="1" customWidth="1"/>
@@ -60912,7 +60996,7 @@
       </c>
       <c r="B2" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$9),0%)</f>
-        <v>0.14925373134328357</v>
+        <v>0.29850746268656714</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>124</v>
@@ -60990,7 +61074,7 @@
       </c>
       <c r="B3" s="30">
         <f ca="1">MAX(100%,B2)-B2</f>
-        <v>0.85074626865671643</v>
+        <v>0.70149253731343286</v>
       </c>
       <c r="D3" s="26">
         <v>43873</v>
@@ -61160,52 +61244,44 @@
         <v>0.28358208955223879</v>
       </c>
       <c r="M5" s="70">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="N5" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Admin")</f>
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Visio Import/Export")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Visio Import/Export")</f>
-        <v>-2</v>
+        <v>0.26</v>
       </c>
       <c r="P5" s="76">
-        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Logging and Audit")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Logging and Audit")</f>
-        <v>-2</v>
+        <v>0.12</v>
       </c>
       <c r="Q5" s="40">
         <f t="shared" ref="Q5:Q9" si="1">$Q$25*(100%-K5)</f>
         <v>451.34328358208961</v>
       </c>
-      <c r="R5" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
-        <v>450</v>
+      <c r="R5" s="40">
+        <v>408.8</v>
       </c>
       <c r="S5" s="42">
         <f t="shared" ref="S5:S9" si="2">$Q$26*(100%-K5)</f>
         <v>186.26865671641792</v>
       </c>
       <c r="T5" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")</f>
-        <v>150</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="U5" s="40">
         <f t="shared" ref="U5:U9" si="3">$Q$27*(100%-L5)</f>
         <v>143.28358208955225</v>
       </c>
       <c r="V5" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Visio Import/Export")</f>
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="W5" s="40">
         <f t="shared" ref="W5:W9" si="4">$Q$28*(100%-K5)</f>
         <v>42.985074626865675</v>
       </c>
       <c r="X5" s="42">
-        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Logging and Audit")</f>
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="Z5" s="32">
         <v>43969</v>
@@ -61234,7 +61310,7 @@
       </c>
       <c r="E6" s="25">
         <f ca="1">TODAY()</f>
-        <v>43887</v>
+        <v>43901</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>265</v>
@@ -61259,30 +61335,54 @@
         <f>SUM($J$4:J6)/SUM($J$4:$J$10)</f>
         <v>0.43283582089552236</v>
       </c>
-      <c r="M6" s="70"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
+      <c r="M6" s="70">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4)/GETPIVOTDATA("Epic Total Estimate",$AB$4)</f>
+        <v>0.25</v>
+      </c>
+      <c r="N6" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Admin")</f>
+        <v>-0.5</v>
+      </c>
+      <c r="O6" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Visio Import/Export")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Visio Import/Export")</f>
+        <v>-2</v>
+      </c>
+      <c r="P6" s="76">
+        <f>100%-GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Logging and Audit")/GETPIVOTDATA("Epic Total Estimate",$AB$4,"ST:Components","Logging and Audit")</f>
+        <v>-2</v>
+      </c>
       <c r="Q6" s="40">
         <f t="shared" ref="Q6" si="5">$Q$25*(100%-K6)</f>
         <v>357.31343283582095</v>
       </c>
-      <c r="R6" s="42"/>
+      <c r="R6" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4)</f>
+        <v>450</v>
+      </c>
       <c r="S6" s="42">
         <f t="shared" ref="S6" si="6">$Q$26*(100%-K6)</f>
         <v>147.46268656716421</v>
       </c>
-      <c r="T6" s="42"/>
+      <c r="T6" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Admin")</f>
+        <v>150</v>
+      </c>
       <c r="U6" s="40">
         <f t="shared" ref="U6" si="7">$Q$27*(100%-L6)</f>
         <v>113.43283582089553</v>
       </c>
-      <c r="V6" s="42"/>
+      <c r="V6" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Visio Import/Export")</f>
+        <v>150</v>
+      </c>
       <c r="W6" s="40">
         <f t="shared" ref="W6" si="8">$Q$28*(100%-K6)</f>
         <v>34.029850746268664</v>
       </c>
-      <c r="X6" s="42"/>
+      <c r="X6" s="42">
+        <f>GETPIVOTDATA("Epic Remaining Estimate",$AB$4,"ST:Components","Logging and Audit")</f>
+        <v>150</v>
+      </c>
       <c r="Z6" s="32"/>
       <c r="AB6" s="17" t="s">
         <v>184</v>
@@ -61808,7 +61908,7 @@
       </c>
       <c r="B22" s="44">
         <f ca="1">MAX(NETWORKDAYS($D$3,$E$6,$Z$3:$Z$9)/NETWORKDAYS($D$3,$E$3,$Z$3:$Z$9),0%)</f>
-        <v>0.14925373134328357</v>
+        <v>0.29850746268656714</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
@@ -61817,7 +61917,7 @@
       </c>
       <c r="B23" s="30">
         <f ca="1">MAX(100%,B22)-B22</f>
-        <v>0.85074626865671643</v>
+        <v>0.70149253731343286</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
@@ -62916,132 +63016,116 @@
         <v>43900</v>
       </c>
       <c r="D5" s="57">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic")</f>
-        <v>600</v>
+        <v>630.79999999999995</v>
       </c>
       <c r="E5" s="58">
         <f>_ReleaseData!$Q$25</f>
         <v>630</v>
       </c>
       <c r="F5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic")</f>
-        <v>0</v>
+        <v>630.79999999999995</v>
       </c>
       <c r="G5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic")</f>
-        <v>540</v>
+        <v>606.29999999999995</v>
       </c>
       <c r="H5" s="40">
         <f t="shared" ref="H5" si="12">D5-I5</f>
-        <v>150</v>
+        <v>221.99999999999994</v>
       </c>
       <c r="I5" s="40">
-        <f>GETPIVOTDATA("Epic Remaining Estimate", $AL$8, "Type", "Epic")</f>
-        <v>450</v>
+        <v>408.8</v>
       </c>
       <c r="J5" s="33">
         <f t="shared" ref="J5" si="13" xml:space="preserve"> G5/D5</f>
-        <v>0.9</v>
+        <v>0.96116043119847816</v>
       </c>
       <c r="K5" s="33">
         <f t="shared" ref="K5" si="14" xml:space="preserve"> H5/D5</f>
-        <v>0.25</v>
+        <v>0.35193405199746347</v>
       </c>
       <c r="L5" s="59">
-        <f>GETPIVOTDATA("Epic Total Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>100</v>
+        <v>275.8</v>
       </c>
       <c r="M5" s="58">
         <f>_ReleaseData!$Q$26</f>
         <v>260</v>
       </c>
       <c r="N5" s="40">
-        <f>GETPIVOTDATA("Stories Estimate", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>0</v>
+        <v>275.8</v>
       </c>
       <c r="O5" s="40">
-        <f>GETPIVOTDATA("Epic Decomposed", $AL$8, "Type", "Epic", "ST:Components", "Admin")</f>
-        <v>180</v>
+        <v>275.8</v>
       </c>
       <c r="P5" s="40">
         <f t="shared" ref="P5" si="15">L5-Q5</f>
-        <v